--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D3786-B880-480C-8F8F-FF7451477F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14299C17-20BC-4A34-BC31-AE2ABC6A9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -199,7 +199,606 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>된다</t>
+          <t>된다
+총</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개까지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나열이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보인다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비날짜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이론</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능하다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날짜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개까지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>총</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이하의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활성되도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14299C17-20BC-4A34-BC31-AE2ABC6A9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9C462C-2273-480B-967A-B43B06E67A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>7챕터 클리어 특별 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,6 +1194,24 @@
   <si>
     <t>ie2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 장비</t>
+  </si>
+  <si>
+    <t>지정 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1201</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2248,23 +2268,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="6.625" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
     <col min="10" max="10" width="4.625" customWidth="1"/>
-    <col min="12" max="12" width="4.875" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
     <col min="13" max="13" width="6.625" customWidth="1"/>
     <col min="14" max="14" width="10.375" customWidth="1"/>
     <col min="15" max="15" width="4.625" customWidth="1"/>
-    <col min="17" max="17" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
     <col min="18" max="18" width="6.625" customWidth="1"/>
     <col min="19" max="19" width="10.375" customWidth="1"/>
   </cols>
@@ -2370,10 +2390,10 @@
         <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I32" si="1">IF(F2="장비1상자",
@@ -2422,7 +2442,7 @@
       </c>
       <c r="U2" t="str">
         <f t="shared" ref="U2" ca="1" si="6">IF(ROW()=2,V2,OFFSET(U2,-1,0)&amp;IF(LEN(V2)=0,"",","&amp;V2))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
       </c>
       <c r="V2" t="str">
         <f ca="1">IF(T2&lt;&gt;1,"",
@@ -2438,7 +2458,7 @@
 &amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
 &amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
 &amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"&amp;R2)&amp;"}")</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
       </c>
       <c r="X2" t="s">
         <v>3</v>
@@ -2450,7 +2470,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2469,16 +2489,16 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="1"/>
@@ -2505,7 +2525,7 @@
       </c>
       <c r="U3" t="str">
         <f ca="1">IF(ROW()=2,V3,OFFSET(U3,-1,0)&amp;IF(LEN(V3)=0,"",","&amp;V3))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1}</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V16" ca="1" si="7">IF(T3&lt;&gt;1,"",
@@ -2521,7 +2541,7 @@
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"""&amp;O3&amp;"""")
 &amp;IF(LEN(Q3)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q3&amp;"""")
 &amp;IF(LEN(R3)=0,"",","""&amp;R$1&amp;""":"&amp;R3)&amp;"}")</f>
-        <v>{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <v>{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1}</v>
       </c>
       <c r="X3" t="s">
         <v>45</v>
@@ -2582,12 +2602,18 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U16" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
@@ -2641,7 +2667,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2700,7 +2726,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2759,7 +2785,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2827,7 +2853,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2877,7 +2903,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="7"/>
@@ -2927,7 +2953,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="7"/>
@@ -2977,7 +3003,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="7"/>
@@ -3027,7 +3053,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="7"/>
@@ -3077,7 +3103,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="7"/>
@@ -3127,7 +3153,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="7"/>
@@ -3177,7 +3203,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="7"/>
@@ -3227,7 +3253,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="7"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9C462C-2273-480B-967A-B43B06E67A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C407045-BACD-4D35-A14F-32FA1973B141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,140 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>된다
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> CumulativeEventCanvas </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 총</t>
         </r>
         <r>
@@ -799,6 +932,134 @@
             <family val="2"/>
           </rPr>
           <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B42855AA-DAA3-45F6-8945-E4FDB46C848A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개수를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣으니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함께</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
         </r>
       </text>
     </comment>
@@ -832,6 +1093,101 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>보상이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곳으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>해당</t>
         </r>
         <r>
@@ -870,83 +1226,688 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>수량</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>프리팹에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>넣어둠</t>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구성해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다
+보상이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개인데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고치려고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이것은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>냅두고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오버라이딩해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐두면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1357FCB7-6D45-48D8-BE44-7DDF8366D517}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돋보기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장비와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리턴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스크롤은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반드시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리에만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>와야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다
+돋보기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>줄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없다</t>
         </r>
       </text>
     </comment>
@@ -955,11 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
-  <si>
-    <t>7챕터 클리어 특별 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -1127,35 +2084,91 @@
     <t>재화</t>
   </si>
   <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>장비1상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evntRw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비1상자</t>
+  </si>
+  <si>
     <t>DI</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>장비1상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evntRw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비1상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서프라이즈 누적 오리진 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 이벤트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 이벤트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 장비</t>
+  </si>
+  <si>
+    <t>지정 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카오스 오픈 누적 로그인 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7챕터 클리어 오리진 상자 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1164,61 +2177,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서프라이즈 누적 오리진 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 이벤트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 이벤트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정 장비</t>
-  </si>
-  <si>
-    <t>지정 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip1201</t>
+    <t>Equip0401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +2259,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1308,7 +2298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1331,6 +2321,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1670,73 +2666,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
+      <c r="A1" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f t="shared" ref="D2:D6" si="0">IF(AND(C2=0,OR(NOT(ISBLANK(K2)),NOT(ISBLANK(L2)))),"날짜있음",
+        <f t="shared" ref="D2:D7" si="0">IF(AND(C2=0,OR(NOT(ISBLANK(K2)),NOT(ISBLANK(L2)))),"날짜있음",
 IF(AND(C2=1,OR(ISBLANK(K2),ISBLANK(L2))),"날짜없음",""))</f>
         <v/>
       </c>
@@ -1774,11 +2770,11 @@
         <v>1</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P6" ca="1" si="1">IF(ROW()=2,Q2,OFFSET(P2,-1,0)&amp;IF(LEN(Q2)=0,"",","&amp;Q2))</f>
+        <f t="shared" ref="P2:P7" ca="1" si="1">IF(ROW()=2,Q2,OFFSET(P2,-1,0)&amp;IF(LEN(Q2)=0,"",","&amp;Q2))</f>
         <v>{"id":"na","td":7}</v>
       </c>
       <c r="Q2" t="str">
-        <f>IF(O2&lt;&gt;1,"",
+        <f t="shared" ref="Q2:Q8" si="2">IF(O2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;IF(LEN(E2)=0,"",","""&amp;E$1&amp;""":"""&amp;E2&amp;"""")
 &amp;IF(LEN(F2)=0,"",","""&amp;F$1&amp;""":"""&amp;F2&amp;"""")
@@ -1793,15 +2789,15 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1811,102 +2807,95 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E9" si="2">IF(ISBLANK($K3),"",YEAR($K3))</f>
+        <f t="shared" ref="E3:E10" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F9" si="3">IF(ISBLANK($K3),"",MONTH($K3))</f>
+        <f t="shared" ref="F3:F10" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G9" si="4">IF(ISBLANK($K3),"",DAY($K3))</f>
+        <f t="shared" ref="G3:G10" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H9" si="5">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
+        <f t="shared" ref="H3:H10" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I9" si="6">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
+        <f t="shared" ref="I3:I10" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J9" si="7">IF(ISBLANK($L3),"",DAY($L3+1))</f>
+        <f t="shared" ref="J3:J10" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
         <v/>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{"id":"na","td":7}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10}</v>
       </c>
       <c r="Q3" t="str">
-        <f>IF(O3&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
-&amp;IF(LEN(E3)=0,"",","""&amp;E$1&amp;""":"""&amp;E3&amp;"""")
-&amp;IF(LEN(F3)=0,"",","""&amp;F$1&amp;""":"""&amp;F3&amp;"""")
-&amp;IF(LEN(G3)=0,"",","""&amp;G$1&amp;""":"""&amp;G3&amp;"""")
-&amp;IF(LEN(H3)=0,"",","""&amp;H$1&amp;""":"""&amp;H3&amp;"""")
-&amp;IF(LEN(I3)=0,"",","""&amp;I$1&amp;""":"""&amp;I3&amp;"""")
-&amp;IF(LEN(J3)=0,"",","""&amp;J$1&amp;""":"""&amp;J3&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N3&amp;"}")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>{"id":"no","td":10}</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4" si="9">IF(AND(C4=0,OR(NOT(ISBLANK(K4)),NOT(ISBLANK(L4)))),"날짜있음",
+IF(AND(C4=1,OR(ISBLANK(K4),ISBLANK(L4))),"날짜없음",""))</f>
         <v/>
       </c>
       <c r="E4" t="str">
-        <f>IF(ISBLANK($K4),"",YEAR($K4))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f>IF(ISBLANK($K4),"",MONTH($K4))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f>IF(ISBLANK($K4),"",DAY($K4))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f>IF(ISBLANK($L4),"",YEAR($L4+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f>IF(ISBLANK($L4),"",MONTH($L4+1))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISBLANK($L4),"",DAY($L4+1))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"id":"na","td":7}</v>
+        <f t="shared" ref="P4:P10" ca="1" si="10">IF(ROW()=2,Q4,OFFSET(P4,-1,0)&amp;IF(LEN(Q4)=0,"",","&amp;Q4))</f>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q4" t="str">
-        <f>IF(O4&lt;&gt;1,"",
+        <f t="shared" ref="Q4:Q10" si="11">IF(O4&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A4&amp;""""
 &amp;IF(LEN(E4)=0,"",","""&amp;E$1&amp;""":"""&amp;E4&amp;"""")
 &amp;IF(LEN(F4)=0,"",","""&amp;F$1&amp;""":"""&amp;F4&amp;"""")
@@ -1915,86 +2904,68 @@
 &amp;IF(LEN(I4)=0,"",","""&amp;I$1&amp;""":"""&amp;I4&amp;"""")
 &amp;IF(LEN(J4)=0,"",","""&amp;J$1&amp;""":"""&amp;J4&amp;"""")
 &amp;","""&amp;N$1&amp;""":"&amp;N4&amp;"}")</f>
-        <v/>
+        <v>{"id":"co","td":4}</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>2020</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
-        <v>2020</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="6"/>
+      <c r="E5" t="str">
+        <f>IF(ISBLANK($K5),"",YEAR($K5))</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(ISBLANK($K5),"",MONTH($K5))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(ISBLANK($K5),"",DAY($K5))</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(ISBLANK($L5),"",YEAR($L5+1))</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(ISBLANK($L5),"",MONTH($L5+1))</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(ISBLANK($L5),"",DAY($L5+1))</f>
+        <v/>
+      </c>
+      <c r="N5">
         <v>7</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>43992</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44013</v>
-      </c>
-      <c r="M5" s="7">
-        <f>L5-K5+1</f>
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>14</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"id":"na","td":7}</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(O5&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A5&amp;""""
-&amp;IF(LEN(E5)=0,"",","""&amp;E$1&amp;""":"""&amp;E5&amp;"""")
-&amp;IF(LEN(F5)=0,"",","""&amp;F$1&amp;""":"""&amp;F5&amp;"""")
-&amp;IF(LEN(G5)=0,"",","""&amp;G$1&amp;""":"""&amp;G5&amp;"""")
-&amp;IF(LEN(H5)=0,"",","""&amp;H$1&amp;""":"""&amp;H5&amp;"""")
-&amp;IF(LEN(I5)=0,"",","""&amp;I$1&amp;""":"""&amp;I5&amp;"""")
-&amp;IF(LEN(J5)=0,"",","""&amp;J$1&amp;""":"""&amp;J5&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N5&amp;"}")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2004,232 +2975,208 @@
         <v/>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>44044</v>
+        <v>43992</v>
       </c>
       <c r="L6" s="1">
-        <v>44063</v>
+        <v>44013</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{"id":"na","td":7}</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q6" t="str">
-        <f>IF(O6&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A6&amp;""""
-&amp;IF(LEN(E6)=0,"",","""&amp;E$1&amp;""":"""&amp;E6&amp;"""")
-&amp;IF(LEN(F6)=0,"",","""&amp;F$1&amp;""":"""&amp;F6&amp;"""")
-&amp;IF(LEN(G6)=0,"",","""&amp;G$1&amp;""":"""&amp;G6&amp;"""")
-&amp;IF(LEN(H6)=0,"",","""&amp;H$1&amp;""":"""&amp;H6&amp;"""")
-&amp;IF(LEN(I6)=0,"",","""&amp;I$1&amp;""":"""&amp;I6&amp;"""")
-&amp;IF(LEN(J6)=0,"",","""&amp;J$1&amp;""":"""&amp;J6&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N6&amp;"}")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44044</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44063</v>
+      </c>
+      <c r="M7" s="7">
+        <f>L7-K7+1</f>
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f>IF(AND(C7=0,OR(NOT(ISBLANK(K7)),NOT(ISBLANK(L7)))),"날짜있음",
-IF(AND(C7=1,OR(ISBLANK(K7),ISBLANK(L7))),"날짜없음",""))</f>
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <f>IF(ISBLANK($K7),"",YEAR($K7))</f>
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <f>IF(ISBLANK($K7),"",MONTH($K7))</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f>IF(ISBLANK($K7),"",DAY($K7))</f>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f>IF(ISBLANK($L7),"",YEAR($L7+1))</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>IF(ISBLANK($L7),"",MONTH($L7+1))</f>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f>IF(ISBLANK($L7),"",DAY($L7+1))</f>
-        <v/>
-      </c>
       <c r="N7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="str">
-        <f ca="1">IF(ROW()=2,Q7,OFFSET(P7,-1,0)&amp;IF(LEN(Q7)=0,"",","&amp;Q7))</f>
-        <v>{"id":"na","td":7}</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q7" t="str">
-        <f>IF(O7&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A7&amp;""""
-&amp;IF(LEN(E7)=0,"",","""&amp;E$1&amp;""":"""&amp;E7&amp;"""")
-&amp;IF(LEN(F7)=0,"",","""&amp;F$1&amp;""":"""&amp;F7&amp;"""")
-&amp;IF(LEN(G7)=0,"",","""&amp;G$1&amp;""":"""&amp;G7&amp;"""")
-&amp;IF(LEN(H7)=0,"",","""&amp;H$1&amp;""":"""&amp;H7&amp;"""")
-&amp;IF(LEN(I7)=0,"",","""&amp;I$1&amp;""":"""&amp;I7&amp;"""")
-&amp;IF(LEN(J7)=0,"",","""&amp;J$1&amp;""":"""&amp;J7&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N7&amp;"}")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f t="shared" ref="D8:D9" si="8">IF(AND(C8=0,OR(NOT(ISBLANK(K8)),NOT(ISBLANK(L8)))),"날짜있음",
+        <f>IF(AND(C8=0,OR(NOT(ISBLANK(K8)),NOT(ISBLANK(L8)))),"날짜있음",
 IF(AND(C8=1,OR(ISBLANK(K8),ISBLANK(L8))),"날짜없음",""))</f>
         <v/>
       </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>2020</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>2020</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>44044</v>
-      </c>
-      <c r="L8" s="1">
-        <v>44063</v>
-      </c>
-      <c r="M8" s="7">
-        <f t="shared" ref="M8:M9" si="9">L8-K8+1</f>
-        <v>20</v>
+      <c r="E8" t="str">
+        <f>IF(ISBLANK($K8),"",YEAR($K8))</f>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ISBLANK($K8),"",MONTH($K8))</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(ISBLANK($K8),"",DAY($K8))</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(ISBLANK($L8),"",YEAR($L8+1))</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(ISBLANK($L8),"",MONTH($L8+1))</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(ISBLANK($L8),"",DAY($L8+1))</f>
+        <v/>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" ref="P8:P9" ca="1" si="10">IF(ROW()=2,Q8,OFFSET(P8,-1,0)&amp;IF(LEN(Q8)=0,"",","&amp;Q8))</f>
-        <v>{"id":"na","td":7}</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ref="Q8:Q9" si="11">IF(O8&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A8&amp;""""
-&amp;IF(LEN(E8)=0,"",","""&amp;E$1&amp;""":"""&amp;E8&amp;"""")
-&amp;IF(LEN(F8)=0,"",","""&amp;F$1&amp;""":"""&amp;F8&amp;"""")
-&amp;IF(LEN(G8)=0,"",","""&amp;G$1&amp;""":"""&amp;G8&amp;"""")
-&amp;IF(LEN(H8)=0,"",","""&amp;H$1&amp;""":"""&amp;H8&amp;"""")
-&amp;IF(LEN(I8)=0,"",","""&amp;I$1&amp;""":"""&amp;I8&amp;"""")
-&amp;IF(LEN(J8)=0,"",","""&amp;J$1&amp;""":"""&amp;J8&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N8&amp;"}")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="str">
+        <f t="shared" ref="D9:D10" si="12">IF(AND(C9=0,OR(NOT(ISBLANK(K9)),NOT(ISBLANK(L9)))),"날짜있음",
+IF(AND(C9=1,OR(ISBLANK(K9),ISBLANK(L9))),"날짜없음",""))</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>2020</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>2020</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K9" s="1">
@@ -2239,7 +3186,7 @@
         <v>44063</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M9:M10" si="13">L9-K9+1</f>
         <v>20</v>
       </c>
       <c r="N9">
@@ -2250,9 +3197,72 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44044</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44063</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -2260,13 +3270,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
@@ -2291,84 +3302,84 @@
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" t="s">
-        <v>2</v>
-      </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(A2,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2381,39 +3392,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E16" ca="1" si="0">IF(ISBLANK(F2),"",
+        <f t="shared" ref="E2:E27" ca="1" si="0">IF(ISBLANK(F2),"",
 VLOOKUP(F2,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I32" si="1">IF(F2="장비1상자",
-  IF(OR(G2&gt;3,H2&lt;&gt;1),"장비이상",""),
+        <f>IF(F2="장비1상자",
+  IF(OR(G2&gt;3,H2&gt;5),"장비이상",""),
 IF(G2="GO",
   IF(H2&lt;100,"골드이상",""),
 IF(G2="DI",
   IF(H2&gt;29,"다이아너무많음",
   IF(H2&gt;9,"다이아다소많음","")),"")))</f>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J16" ca="1" si="2">IF(ISBLANK(K2),"",
+        <f t="shared" ref="J2:J27" ca="1" si="1">IF(ISBLANK(K2),"",
 VLOOKUP(K2,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N32" si="3">IF(K2="장비1상자",
-  IF(OR(L2&gt;3,M2&lt;&gt;1),"장비이상",""),
+        <f t="shared" ref="N2:N27" si="2">IF(K2="장비1상자",
+  IF(OR(L2&gt;3,M2&gt;5),"장비이상",""),
 IF(L2="GO",
   IF(M2&lt;100,"골드이상",""),
 IF(L2="DI",
@@ -2422,14 +3433,14 @@
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O16" ca="1" si="4">IF(ISBLANK(P2),"",
+        <f t="shared" ref="O2:O27" ca="1" si="3">IF(ISBLANK(P2),"",
 VLOOKUP(P2,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:S32" si="5">IF(P2="장비1상자",
-  IF(OR(Q2&gt;3,R2&lt;&gt;1),"장비이상",""),
+        <f t="shared" ref="S2:S27" si="4">IF(P2="장비1상자",
+  IF(OR(Q2&gt;3,R2&gt;5),"장비이상",""),
 IF(Q2="GO",
   IF(R2&lt;100,"골드이상",""),
 IF(Q2="DI",
@@ -2441,8 +3452,8 @@
         <v>1</v>
       </c>
       <c r="U2" t="str">
-        <f t="shared" ref="U2" ca="1" si="6">IF(ROW()=2,V2,OFFSET(U2,-1,0)&amp;IF(LEN(V2)=0,"",","&amp;V2))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
+        <f t="shared" ref="U2" ca="1" si="5">IF(ROW()=2,V2,OFFSET(U2,-1,0)&amp;IF(LEN(V2)=0,"",","&amp;V2))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V2" t="str">
         <f ca="1">IF(T2&lt;&gt;1,"",
@@ -2458,24 +3469,24 @@
 &amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
 &amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
 &amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"&amp;R2)&amp;"}")</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
         <v>3</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>4</v>
       </c>
       <c r="AA2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(A3,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2489,35 +3500,41 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fe</v>
+        <v>cu</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I27" si="6">IF(F3="장비1상자",
+  IF(OR(G3&gt;3,H3&gt;5),"장비이상",""),
+IF(G3="GO",
+  IF(H3&lt;100,"골드이상",""),
+IF(G3="DI",
+  IF(H3&gt;29,"다이아너무많음",
+  IF(H3&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T3">
@@ -2525,10 +3542,10 @@
       </c>
       <c r="U3" t="str">
         <f ca="1">IF(ROW()=2,V3,OFFSET(U3,-1,0)&amp;IF(LEN(V3)=0,"",","&amp;V3))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V16" ca="1" si="7">IF(T3&lt;&gt;1,"",
+        <f t="shared" ref="V3:V27" ca="1" si="7">IF(T3&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C3
 &amp;","""&amp;D$1&amp;""":"&amp;D3
@@ -2541,18 +3558,18 @@
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"""&amp;O3&amp;"""")
 &amp;IF(LEN(Q3)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q3&amp;"""")
 &amp;IF(LEN(R3)=0,"",","""&amp;R$1&amp;""":"&amp;R3)&amp;"}")</f>
-        <v>{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1}</v>
+        <v>{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(A4,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2569,7 +3586,7 @@
         <v>be</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2578,46 +3595,46 @@
         <v>1</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U16" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <f t="shared" ref="U4:U27" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2634,32 +3651,32 @@
         <v>cu</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T5">
@@ -2667,16 +3684,16 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
+        <v>{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2690,35 +3707,35 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T6">
@@ -2726,16 +3743,16 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2752,32 +3769,32 @@
         <v>cu</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T7">
@@ -2785,16 +3802,16 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2811,41 +3828,41 @@
         <v>cu</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>12500</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>다이아다소많음</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T8">
@@ -2853,16 +3870,16 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100}</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100}</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2876,43 +3893,52 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>be</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2926,43 +3952,52 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -2976,518 +4011,988 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O11" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(A12,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>7챕터 클리어 특별 보상</v>
+        <v>신규계정 누적 오리진 상자</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ref="E12:E18" ca="1" si="9">IF(ISBLANK(F12),"",
+VLOOKUP(F12,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="J12:J18" ca="1" si="10">IF(ISBLANK(K12),"",
+VLOOKUP(K12,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O12" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="O12:O18" ca="1" si="11">IF(ISBLANK(P12),"",
+VLOOKUP(P12,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <f t="shared" ref="U12:U18" ca="1" si="12">IF(ROW()=2,V12,OFFSET(U12,-1,0)&amp;IF(LEN(V12)=0,"",","&amp;V12))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ref="V12:V18" ca="1" si="13">IF(T12&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A12&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C12
+&amp;","""&amp;D$1&amp;""":"&amp;D12
+&amp;IF(LEN(E12)=0,"",","""&amp;E$1&amp;""":"""&amp;E12&amp;"""")
+&amp;IF(LEN(G12)=0,"",","""&amp;G$1&amp;""":"""&amp;G12&amp;"""")
+&amp;IF(LEN(H12)=0,"",","""&amp;H$1&amp;""":"&amp;H12)
+&amp;IF(LEN(J12)=0,"",","""&amp;J$1&amp;""":"""&amp;J12&amp;"""")
+&amp;IF(LEN(L12)=0,"",","""&amp;L$1&amp;""":"""&amp;L12&amp;"""")
+&amp;IF(LEN(M12)=0,"",","""&amp;M$1&amp;""":"&amp;M12)
+&amp;IF(LEN(O12)=0,"",","""&amp;O$1&amp;""":"""&amp;O12&amp;"""")
+&amp;IF(LEN(Q12)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q12&amp;"""")
+&amp;IF(LEN(R12)=0,"",","""&amp;R$1&amp;""":"&amp;R12)&amp;"}")</f>
+        <v>{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(A13,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>7챕터 클리어 특별 보상</v>
+        <v>신규계정 누적 오리진 상자</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>7챕터 클리어 특별 보상</v>
+        <v>신규계정 누적 오리진 상자</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>fe</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1}</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1}</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(A15,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>7챕터 클리어 특별 보상</v>
+        <v>신규계정 누적 오리진 상자</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(A16,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>7챕터 클리어 특별 보상</v>
+        <v>신규계정 누적 오리진 상자</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>be</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>신규계정 누적 오리진 상자</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>10000</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>신규계정 누적 오리진 상자</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>fe</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>카오스 오픈 누적 로그인 보상</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E22" ca="1" si="14">IF(ISBLANK(F19),"",
+VLOOKUP(F19,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
+        <v>다이아다소많음</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J22" ca="1" si="15">IF(ISBLANK(K19),"",
+VLOOKUP(K19,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ref="O19:O22" ca="1" si="16">IF(ISBLANK(P19),"",
+VLOOKUP(P19,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" ref="U19:U22" ca="1" si="17">IF(ROW()=2,V19,OFFSET(U19,-1,0)&amp;IF(LEN(V19)=0,"",","&amp;V19))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" ref="V19:V22" ca="1" si="18">IF(T19&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A19&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C19
+&amp;","""&amp;D$1&amp;""":"&amp;D19
+&amp;IF(LEN(E19)=0,"",","""&amp;E$1&amp;""":"""&amp;E19&amp;"""")
+&amp;IF(LEN(G19)=0,"",","""&amp;G$1&amp;""":"""&amp;G19&amp;"""")
+&amp;IF(LEN(H19)=0,"",","""&amp;H$1&amp;""":"&amp;H19)
+&amp;IF(LEN(J19)=0,"",","""&amp;J$1&amp;""":"""&amp;J19&amp;"""")
+&amp;IF(LEN(L19)=0,"",","""&amp;L$1&amp;""":"""&amp;L19&amp;"""")
+&amp;IF(LEN(M19)=0,"",","""&amp;M$1&amp;""":"&amp;M19)
+&amp;IF(LEN(O19)=0,"",","""&amp;O$1&amp;""":"""&amp;O19&amp;"""")
+&amp;IF(LEN(Q19)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q19&amp;"""")
+&amp;IF(LEN(R19)=0,"",","""&amp;R$1&amp;""":"&amp;R19)&amp;"}")</f>
+        <v>{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>카오스 오픈 누적 로그인 보상</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>cu</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20">
+        <v>10000</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>카오스 오픈 누적 로그인 보상</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>cu</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
+        <v>다이아너무많음</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>카오스 오픈 누적 로그인 보상</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>be</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T16">
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T23">
         <v>0</v>
       </c>
-      <c r="U16" t="str">
+      <c r="U23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"na","da":2,"ad":0,"tp1":"fe","vl1":"Equip1201","cn1":1},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"DI","cn1":25,"tp2":"be","vl2":"3","cn2":1}</v>
-      </c>
-      <c r="V16" t="str">
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="9:19">
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="5"/>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:19">
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="5"/>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="9:19">
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="5"/>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="9:19">
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="9:19">
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="9:19">
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="9:19">
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="9:19">
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="9:19">
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="9:19">
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="9:19">
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="9:19">
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="9:19">
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="9:19">
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="9:19">
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="9:19">
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16 K2:K16 P2:P16" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27 K2:K27 P2:P27" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C407045-BACD-4D35-A14F-32FA1973B141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7010EA7-E794-4B4C-84B6-B18D7B3BFCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -2185,7 +2185,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equip1301</t>
+    <t>Equip2301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2770,11 +2771,11 @@
         <v>1</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P7" ca="1" si="1">IF(ROW()=2,Q2,OFFSET(P2,-1,0)&amp;IF(LEN(Q2)=0,"",","&amp;Q2))</f>
+        <f t="shared" ref="P2:P3" ca="1" si="1">IF(ROW()=2,Q2,OFFSET(P2,-1,0)&amp;IF(LEN(Q2)=0,"",","&amp;Q2))</f>
         <v>{"id":"na","td":7}</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q8" si="2">IF(O2&lt;&gt;1,"",
+        <f t="shared" ref="Q2:Q3" si="2">IF(O2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;IF(LEN(E2)=0,"",","""&amp;E$1&amp;""":"""&amp;E2&amp;"""")
 &amp;IF(LEN(F2)=0,"",","""&amp;F$1&amp;""":"""&amp;F2&amp;"""")
@@ -3279,9 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3481,7 +3480,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3958,14 +3957,14 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>5000</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="6"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3988,11 +3987,11 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
+        <v>{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4017,14 +4016,14 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H11">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4047,11 +4046,11 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
+        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4112,7 +4111,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" ref="U12:U18" ca="1" si="12">IF(ROW()=2,V12,OFFSET(U12,-1,0)&amp;IF(LEN(V12)=0,"",","&amp;V12))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" ref="V12:V18" ca="1" si="13">IF(T12&lt;&gt;1,"",
@@ -4156,7 +4155,7 @@
         <v>65</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="6"/>
@@ -4183,11 +4182,11 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4242,11 +4241,11 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1}</v>
+        <v>{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4301,7 +4300,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4360,7 +4359,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4419,7 +4418,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4478,7 +4477,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4509,14 +4508,14 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="6"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J22" ca="1" si="15">IF(ISBLANK(K19),"",
@@ -4543,7 +4542,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" ref="U19:U22" ca="1" si="17">IF(ROW()=2,V19,OFFSET(U19,-1,0)&amp;IF(LEN(V19)=0,"",","&amp;V19))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" ref="V19:V22" ca="1" si="18">IF(T19&lt;&gt;1,"",
@@ -4559,7 +4558,7 @@
 &amp;IF(LEN(O19)=0,"",","""&amp;O$1&amp;""":"""&amp;O19&amp;"""")
 &amp;IF(LEN(Q19)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q19&amp;"""")
 &amp;IF(LEN(R19)=0,"",","""&amp;R$1&amp;""":"&amp;R19)&amp;"}")</f>
-        <v>{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
+        <v>{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -4584,14 +4583,14 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>10000</v>
+        <v>25</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4614,11 +4613,11 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -4640,17 +4639,17 @@
         <v>cu</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>15000</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="6"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4673,11 +4672,11 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000}</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
+        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000}</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -4732,7 +4731,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4782,7 +4781,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="7"/>
@@ -4832,7 +4831,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="7"/>
@@ -4882,7 +4881,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="7"/>
@@ -4932,7 +4931,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="7"/>
@@ -4982,7 +4981,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip1301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="7"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7010EA7-E794-4B4C-84B6-B18D7B3BFCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FADE2F-B312-4C49-B09E-D6F764D2B0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2186,6 +2186,14 @@
   </si>
   <si>
     <t>Equip2301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip7201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3280,7 +3288,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3480,7 +3493,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3957,14 +3970,14 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>5000</v>
+        <v>15</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3987,11 +4000,11 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4016,14 +4029,14 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>5000</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="6"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4046,11 +4059,11 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
+        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4111,7 +4124,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" ref="U12:U18" ca="1" si="12">IF(ROW()=2,V12,OFFSET(U12,-1,0)&amp;IF(LEN(V12)=0,"",","&amp;V12))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" ref="V12:V18" ca="1" si="13">IF(T12&lt;&gt;1,"",
@@ -4182,7 +4195,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4241,7 +4254,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4300,7 +4313,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4359,7 +4372,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4391,7 +4404,7 @@
         <v>62</v>
       </c>
       <c r="H17">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="6"/>
@@ -4418,11 +4431,11 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -4477,7 +4490,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4542,7 +4555,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" ref="U19:U22" ca="1" si="17">IF(ROW()=2,V19,OFFSET(U19,-1,0)&amp;IF(LEN(V19)=0,"",","&amp;V19))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" ref="V19:V22" ca="1" si="18">IF(T19&lt;&gt;1,"",
@@ -4577,20 +4590,20 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="6"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4613,11 +4626,11 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1}</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1}</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -4639,17 +4652,17 @@
         <v>cu</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>15000</v>
+        <v>25</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4672,11 +4685,11 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000}</v>
+        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -4704,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="6"/>
@@ -4731,11 +4744,11 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -4781,7 +4794,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="7"/>
@@ -4831,7 +4844,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="7"/>
@@ -4881,7 +4894,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="7"/>
@@ -4931,7 +4944,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="7"/>
@@ -4981,7 +4994,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":15000},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="7"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FADE2F-B312-4C49-B09E-D6F764D2B0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A0370-BD4D-4587-9BBE-671B4CC026EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2173,27 +2173,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EN</t>
+    <t>co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip2301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equip0401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip2301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip7201</t>
+  </si>
+  <si>
+    <t>GO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3289,10 +3300,10 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3493,7 +3504,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3518,10 +3529,10 @@
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>7500</v>
+        <v>35</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I27" si="6">IF(F3="장비1상자",
@@ -3531,7 +3542,7 @@
 IF(G3="DI",
   IF(H3&gt;29,"다이아너무많음",
   IF(H3&gt;9,"다이아다소많음","")),"")))</f>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3554,7 +3565,7 @@
       </c>
       <c r="U3" t="str">
         <f ca="1">IF(ROW()=2,V3,OFFSET(U3,-1,0)&amp;IF(LEN(V3)=0,"",","&amp;V3))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V27" ca="1" si="7">IF(T3&lt;&gt;1,"",
@@ -3570,7 +3581,7 @@
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"""&amp;O3&amp;"""")
 &amp;IF(LEN(Q3)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q3&amp;"""")
 &amp;IF(LEN(R3)=0,"",","""&amp;R$1&amp;""":"&amp;R3)&amp;"}")</f>
-        <v>{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="X3" t="s">
         <v>43</v>
@@ -3595,20 +3606,20 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3631,11 +3642,11 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U27" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45}</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45}</v>
       </c>
       <c r="X4" t="s">
         <v>57</v>
@@ -3669,7 +3680,7 @@
         <v>48</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="6"/>
@@ -3696,11 +3707,11 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55}</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55}</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3719,16 +3730,16 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="6"/>
@@ -3755,11 +3766,11 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5}</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5}</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3778,16 +3789,16 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="6"/>
@@ -3814,11 +3825,11 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3837,16 +3848,16 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H8">
-        <v>12500</v>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="6"/>
@@ -3854,20 +3865,11 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8">
-        <v>100</v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3882,11 +3884,11 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100}</v>
+        <v>{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -3905,16 +3907,16 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="6"/>
@@ -3941,11 +3943,11 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4000,7 +4002,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4032,7 +4034,7 @@
         <v>62</v>
       </c>
       <c r="H11">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="6"/>
@@ -4059,11 +4061,11 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4124,7 +4126,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" ref="U12:U18" ca="1" si="12">IF(ROW()=2,V12,OFFSET(U12,-1,0)&amp;IF(LEN(V12)=0,"",","&amp;V12))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" ref="V12:V18" ca="1" si="13">IF(T12&lt;&gt;1,"",
@@ -4165,10 +4167,10 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="6"/>
@@ -4195,11 +4197,11 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5}</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
+        <v>{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5}</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4224,7 +4226,7 @@
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4254,7 +4256,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1}</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4313,7 +4315,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4372,7 +4374,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4404,7 +4406,7 @@
         <v>62</v>
       </c>
       <c r="H17">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="6"/>
@@ -4431,11 +4433,11 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -4460,7 +4462,7 @@
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4490,16 +4492,16 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -4555,7 +4557,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" ref="U19:U22" ca="1" si="17">IF(ROW()=2,V19,OFFSET(U19,-1,0)&amp;IF(LEN(V19)=0,"",","&amp;V19))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" ref="V19:V22" ca="1" si="18">IF(T19&lt;&gt;1,"",
@@ -4576,7 +4578,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -4590,20 +4592,20 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>fe</v>
+        <v>cu</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4626,16 +4628,16 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1}</v>
+        <v>{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50}</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -4649,20 +4651,20 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="6"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4685,16 +4687,16 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
@@ -4708,16 +4710,16 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="6"/>
@@ -4725,7 +4727,16 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22">
+        <v>25000</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -4744,11 +4755,11 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -4794,7 +4805,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="7"/>
@@ -4844,7 +4855,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="7"/>
@@ -4894,7 +4905,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="7"/>
@@ -4944,7 +4955,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="7"/>
@@ -4994,7 +5005,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"na","da":3,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":5,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"na","da":7,"ad":1,"tp1":"cu","vl1":"GO","cn1":12500,"tp2":"cu","vl2":"DI","cn2":100},{"id":"no","da":1,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"fe","vl1":"Equip7201","cn1":1},{"id":"co","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"co","da":4,"ad":1,"tp1":"be","vl1":"2","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="7"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A0370-BD4D-4587-9BBE-671B4CC026EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE0162-46B4-447D-8BD0-10333BCC5354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -3300,10 +3300,10 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE0162-46B4-447D-8BD0-10333BCC5354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB708C2-2C0F-48D9-8D97-CDF9649419DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2205,6 +2205,21 @@
   </si>
   <si>
     <t>Equip1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2353,7 +2368,13 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2666,7 +2687,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3000,11 +3021,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -3012,21 +3033,21 @@
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
-        <v>43992</v>
+        <v>44044</v>
       </c>
       <c r="L6" s="1">
-        <v>44013</v>
+        <v>44063</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>14</v>
@@ -3059,37 +3080,37 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>44044</v>
+        <v>44357</v>
       </c>
       <c r="L7" s="1">
-        <v>44063</v>
+        <v>44378</v>
       </c>
       <c r="M7" s="7">
         <f>L7-K7+1</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -3177,37 +3198,37 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="K9" s="1">
-        <v>44044</v>
+        <v>44363</v>
       </c>
       <c r="L9" s="1">
-        <v>44063</v>
+        <v>44397</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" ref="M9:M10" si="13">L9-K9+1</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3289,6 +3310,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($O1=0,$L1&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3297,13 +3323,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3415,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E27" ca="1" si="0">IF(ISBLANK(F2),"",
+        <f t="shared" ref="E2:E11" ca="1" si="0">IF(ISBLANK(F2),"",
 VLOOKUP(F2,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3440,13 +3466,13 @@
         <v>다이아다소많음</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J27" ca="1" si="1">IF(ISBLANK(K2),"",
+        <f t="shared" ref="J2:J11" ca="1" si="1">IF(ISBLANK(K2),"",
 VLOOKUP(K2,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N27" si="2">IF(K2="장비1상자",
+        <f t="shared" ref="N2:N22" si="2">IF(K2="장비1상자",
   IF(OR(L2&gt;3,M2&gt;5),"장비이상",""),
 IF(L2="GO",
   IF(M2&lt;100,"골드이상",""),
@@ -3456,13 +3482,13 @@
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O27" ca="1" si="3">IF(ISBLANK(P2),"",
+        <f t="shared" ref="O2:O11" ca="1" si="3">IF(ISBLANK(P2),"",
 VLOOKUP(P2,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:S27" si="4">IF(P2="장비1상자",
+        <f t="shared" ref="S2:S22" si="4">IF(P2="장비1상자",
   IF(OR(Q2&gt;3,R2&gt;5),"장비이상",""),
 IF(Q2="GO",
   IF(R2&lt;100,"골드이상",""),
@@ -3535,7 +3561,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I27" si="6">IF(F3="장비1상자",
+        <f t="shared" ref="I3:I22" si="6">IF(F3="장비1상자",
   IF(OR(G3&gt;3,H3&gt;5),"장비이상",""),
 IF(G3="GO",
   IF(H3&lt;100,"골드이상",""),
@@ -3568,7 +3594,7 @@
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V27" ca="1" si="7">IF(T3&lt;&gt;1,"",
+        <f t="shared" ref="V3:V23" ca="1" si="7">IF(T3&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C3
 &amp;","""&amp;D$1&amp;""":"&amp;D3
@@ -3641,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U27" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
+        <f t="shared" ref="U4:U23" ca="1" si="8">IF(ROW()=2,V4,OFFSET(U4,-1,0)&amp;IF(LEN(V4)=0,"",","&amp;V4))</f>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45}</v>
       </c>
       <c r="V4" t="str">
@@ -4777,27 +4803,60 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ref="E23:E43" ca="1" si="19">IF(ISBLANK(F23),"",
+VLOOKUP(F23,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I23:I43" si="20">IF(F23="장비1상자",
+  IF(OR(G23&gt;3,H23&gt;5),"장비이상",""),
+IF(G23="GO",
+  IF(H23&lt;100,"골드이상",""),
+IF(G23="DI",
+  IF(H23&gt;29,"다이아너무많음",
+  IF(H23&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="J23:J43" ca="1" si="21">IF(ISBLANK(K23),"",
+VLOOKUP(K23,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N23:N43" si="22">IF(K23="장비1상자",
+  IF(OR(L23&gt;3,M23&gt;5),"장비이상",""),
+IF(L23="GO",
+  IF(M23&lt;100,"골드이상",""),
+IF(L23="DI",
+  IF(M23&gt;29,"다이아너무많음",
+  IF(M23&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="O23:O43" ca="1" si="23">IF(ISBLANK(P23),"",
+VLOOKUP(P23,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S23" si="24">IF(P23="장비1상자",
+  IF(OR(Q23&gt;3,R23&gt;5),"장비이상",""),
+IF(Q23="GO",
+  IF(R23&lt;100,"골드이상",""),
+IF(Q23="DI",
+  IF(R23&gt;29,"다이아너무많음",
+  IF(R23&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T23">
@@ -4827,38 +4886,65 @@
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O24" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S24:S43" si="25">IF(P24="장비1상자",
+  IF(OR(Q24&gt;3,R24&gt;5),"장비이상",""),
+IF(Q24="GO",
+  IF(R24&lt;100,"골드이상",""),
+IF(Q24="DI",
+  IF(R24&gt;29,"다이아너무많음",
+  IF(R24&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="U24:U43" ca="1" si="26">IF(ROW()=2,V24,OFFSET(U24,-1,0)&amp;IF(LEN(V24)=0,"",","&amp;V24))</f>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V24:V43" si="27">IF(T24&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C24
+&amp;","""&amp;D$1&amp;""":"&amp;D24
+&amp;IF(LEN(E24)=0,"",","""&amp;E$1&amp;""":"""&amp;E24&amp;"""")
+&amp;IF(LEN(G24)=0,"",","""&amp;G$1&amp;""":"""&amp;G24&amp;"""")
+&amp;IF(LEN(H24)=0,"",","""&amp;H$1&amp;""":"&amp;H24)
+&amp;IF(LEN(J24)=0,"",","""&amp;J$1&amp;""":"""&amp;J24&amp;"""")
+&amp;IF(LEN(L24)=0,"",","""&amp;L$1&amp;""":"""&amp;L24&amp;"""")
+&amp;IF(LEN(M24)=0,"",","""&amp;M$1&amp;""":"&amp;M24)
+&amp;IF(LEN(O24)=0,"",","""&amp;O$1&amp;""":"""&amp;O24&amp;"""")
+&amp;IF(LEN(Q24)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q24&amp;"""")
+&amp;IF(LEN(R24)=0,"",","""&amp;R$1&amp;""":"&amp;R24)&amp;"}")</f>
         <v/>
       </c>
     </row>
@@ -4877,38 +4963,47 @@
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25">
+        <v>2000</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O25" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="26"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -4927,38 +5022,47 @@
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>2000</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="26"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -4977,45 +5081,2074 @@
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27">
+        <v>2000</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O27" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="26"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28">
+        <v>2000</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>7챕터 클리어 오리진 상자 보상</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29">
+        <v>2000</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30">
+        <v>2000</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31">
+        <v>2000</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32">
+        <v>2000</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>2000</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35">
+        <v>2000</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36">
+        <v>2000</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37">
+        <v>2000</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38">
+        <v>2000</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(A39,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39">
+        <v>2000</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="str">
+        <f>VLOOKUP(A40,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40">
+        <v>2000</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP(A41,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41">
+        <v>2000</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP(A42,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42">
+        <v>2000</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP(A43,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 로그인</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43">
+        <v>2000</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(A44,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ref="E44" ca="1" si="28">IF(ISBLANK(F44),"",
+VLOOKUP(F44,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44">
+        <v>2000</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" ref="I44" si="29">IF(F44="장비1상자",
+  IF(OR(G44&gt;3,H44&gt;5),"장비이상",""),
+IF(G44="GO",
+  IF(H44&lt;100,"골드이상",""),
+IF(G44="DI",
+  IF(H44&gt;29,"다이아너무많음",
+  IF(H44&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ref="J44" ca="1" si="30">IF(ISBLANK(K44),"",
+VLOOKUP(K44,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" ref="N44" si="31">IF(K44="장비1상자",
+  IF(OR(L44&gt;3,M44&gt;5),"장비이상",""),
+IF(L44="GO",
+  IF(M44&lt;100,"골드이상",""),
+IF(L44="DI",
+  IF(M44&gt;29,"다이아너무많음",
+  IF(M44&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" ref="O44" ca="1" si="32">IF(ISBLANK(P44),"",
+VLOOKUP(P44,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" ref="S44" si="33">IF(P44="장비1상자",
+  IF(OR(Q44&gt;3,R44&gt;5),"장비이상",""),
+IF(Q44="GO",
+  IF(R44&lt;100,"골드이상",""),
+IF(Q44="DI",
+  IF(R44&gt;29,"다이아너무많음",
+  IF(R44&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" ref="U44" ca="1" si="34">IF(ROW()=2,V44,OFFSET(U44,-1,0)&amp;IF(LEN(V44)=0,"",","&amp;V44))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" ref="V44" si="35">IF(T44&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A44&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C44
+&amp;","""&amp;D$1&amp;""":"&amp;D44
+&amp;IF(LEN(E44)=0,"",","""&amp;E$1&amp;""":"""&amp;E44&amp;"""")
+&amp;IF(LEN(G44)=0,"",","""&amp;G$1&amp;""":"""&amp;G44&amp;"""")
+&amp;IF(LEN(H44)=0,"",","""&amp;H$1&amp;""":"&amp;H44)
+&amp;IF(LEN(J44)=0,"",","""&amp;J$1&amp;""":"""&amp;J44&amp;"""")
+&amp;IF(LEN(L44)=0,"",","""&amp;L$1&amp;""":"""&amp;L44&amp;"""")
+&amp;IF(LEN(M44)=0,"",","""&amp;M$1&amp;""":"&amp;M44)
+&amp;IF(LEN(O44)=0,"",","""&amp;O$1&amp;""":"""&amp;O44&amp;"""")
+&amp;IF(LEN(Q44)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q44&amp;"""")
+&amp;IF(LEN(R44)=0,"",","""&amp;R$1&amp;""":"&amp;R44)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="str">
+        <f>VLOOKUP(A45,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45:E60" ca="1" si="36">IF(ISBLANK(F45),"",
+VLOOKUP(F45,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45">
+        <v>25</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" ref="I45:I60" si="37">IF(F45="장비1상자",
+  IF(OR(G45&gt;3,H45&gt;5),"장비이상",""),
+IF(G45="GO",
+  IF(H45&lt;100,"골드이상",""),
+IF(G45="DI",
+  IF(H45&gt;29,"다이아너무많음",
+  IF(H45&gt;9,"다이아다소많음","")),"")))</f>
+        <v>다이아다소많음</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45:J60" ca="1" si="38">IF(ISBLANK(K45),"",
+VLOOKUP(K45,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" ref="N45:N60" si="39">IF(K45="장비1상자",
+  IF(OR(L45&gt;3,M45&gt;5),"장비이상",""),
+IF(L45="GO",
+  IF(M45&lt;100,"골드이상",""),
+IF(L45="DI",
+  IF(M45&gt;29,"다이아너무많음",
+  IF(M45&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" ref="O45:O60" ca="1" si="40">IF(ISBLANK(P45),"",
+VLOOKUP(P45,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" ref="S45:S60" si="41">IF(P45="장비1상자",
+  IF(OR(Q45&gt;3,R45&gt;5),"장비이상",""),
+IF(Q45="GO",
+  IF(R45&lt;100,"골드이상",""),
+IF(Q45="DI",
+  IF(R45&gt;29,"다이아너무많음",
+  IF(R45&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" ref="U45:U60" ca="1" si="42">IF(ROW()=2,V45,OFFSET(U45,-1,0)&amp;IF(LEN(V45)=0,"",","&amp;V45))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" ref="V45:V60" si="43">IF(T45&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A45&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C45
+&amp;","""&amp;D$1&amp;""":"&amp;D45
+&amp;IF(LEN(E45)=0,"",","""&amp;E$1&amp;""":"""&amp;E45&amp;"""")
+&amp;IF(LEN(G45)=0,"",","""&amp;G$1&amp;""":"""&amp;G45&amp;"""")
+&amp;IF(LEN(H45)=0,"",","""&amp;H$1&amp;""":"&amp;H45)
+&amp;IF(LEN(J45)=0,"",","""&amp;J$1&amp;""":"""&amp;J45&amp;"""")
+&amp;IF(LEN(L45)=0,"",","""&amp;L$1&amp;""":"""&amp;L45&amp;"""")
+&amp;IF(LEN(M45)=0,"",","""&amp;M$1&amp;""":"&amp;M45)
+&amp;IF(LEN(O45)=0,"",","""&amp;O$1&amp;""":"""&amp;O45&amp;"""")
+&amp;IF(LEN(Q45)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q45&amp;"""")
+&amp;IF(LEN(R45)=0,"",","""&amp;R$1&amp;""":"&amp;R45)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="str">
+        <f>VLOOKUP(A46,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46">
+        <v>2000</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="str">
+        <f>VLOOKUP(A47,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>2000</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP(A48,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP(A49,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <v>35</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="37"/>
+        <v>다이아너무많음</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP(A50,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP(A51,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="37"/>
+        <v>다이아다소많음</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP(A52,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52">
+        <v>2000</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP(A53,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53">
+        <v>10000</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="39"/>
+        <v>다이아너무많음</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP(A54,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54">
+        <v>2000</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VLOOKUP(A55,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55">
+        <v>2000</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="str">
+        <f>VLOOKUP(A56,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
+        <v>2000</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="str">
+        <f>VLOOKUP(A57,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>2000</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="str">
+        <f>VLOOKUP(A58,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58">
+        <v>2000</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="str">
+        <f>VLOOKUP(A59,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59">
+        <v>2000</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="str">
+        <f>VLOOKUP(A60,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>2000</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27 K2:K27 P2:P27" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60 P2:P60 K2:K60" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB708C2-2C0F-48D9-8D97-CDF9649419DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33881ED2-5852-46B6-B92B-AD43A34151DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -2686,9 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3017,37 +3015,37 @@
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1">
-        <v>44044</v>
+        <v>44364</v>
       </c>
       <c r="L6" s="1">
-        <v>44063</v>
+        <v>44407</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>14</v>
@@ -3088,7 +3086,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
@@ -3096,21 +3094,21 @@
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1">
-        <v>44357</v>
+        <v>44348</v>
       </c>
       <c r="L7" s="1">
-        <v>44378</v>
+        <v>44363</v>
       </c>
       <c r="M7" s="7">
         <f>L7-K7+1</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -3206,7 +3204,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
@@ -3221,14 +3219,14 @@
         <v>21</v>
       </c>
       <c r="K9" s="1">
-        <v>44363</v>
+        <v>44360</v>
       </c>
       <c r="L9" s="1">
         <v>44397</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" ref="M9:M10" si="13">L9-K9+1</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3325,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5321,17 +5319,17 @@
         <v>cu</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H31">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5442,14 +5440,14 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5678,14 +5676,14 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5914,14 +5912,14 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="21"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33881ED2-5852-46B6-B92B-AD43A34151DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607AB29-04CA-46BA-BCBB-C8EDAB7E74C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2220,6 +2220,14 @@
   </si>
   <si>
     <t>cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip3401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2686,7 +2694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2828,7 +2838,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3023,7 +3033,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -3035,31 +3045,31 @@
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1">
-        <v>44364</v>
+        <v>44372</v>
       </c>
       <c r="L6" s="1">
-        <v>44407</v>
+        <v>44390</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>14</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3118,7 +3128,7 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="11"/>
@@ -3172,7 +3182,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="11"/>
@@ -3236,7 +3246,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="11"/>
@@ -3299,7 +3309,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
@@ -3323,11 +3333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3528,7 +3538,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -5260,13 +5270,13 @@
         <v>cu</v>
       </c>
       <c r="F30" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>62</v>
       </c>
       <c r="H30">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="20"/>
@@ -5289,15 +5299,15 @@
         <v/>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5325,11 +5335,11 @@
         <v>48</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5348,15 +5358,15 @@
         <v/>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5384,7 +5394,7 @@
         <v>62</v>
       </c>
       <c r="H32">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="20"/>
@@ -5407,15 +5417,15 @@
         <v/>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -5443,11 +5453,11 @@
         <v>48</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5466,15 +5476,15 @@
         <v/>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5499,10 +5509,10 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H34">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="20"/>
@@ -5525,15 +5535,15 @@
         <v/>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5561,7 +5571,7 @@
         <v>62</v>
       </c>
       <c r="H35">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="20"/>
@@ -5584,15 +5594,15 @@
         <v/>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5611,16 +5621,16 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="20"/>
@@ -5643,15 +5653,15 @@
         <v/>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5679,11 +5689,11 @@
         <v>48</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5702,15 +5712,15 @@
         <v/>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5738,7 +5748,7 @@
         <v>62</v>
       </c>
       <c r="H38">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="20"/>
@@ -5761,15 +5771,15 @@
         <v/>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5794,10 +5804,10 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="20"/>
@@ -5820,15 +5830,15 @@
         <v/>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -5856,7 +5866,7 @@
         <v>62</v>
       </c>
       <c r="H40">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="20"/>
@@ -5879,15 +5889,15 @@
         <v/>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -5938,15 +5948,15 @@
         <v/>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -5974,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="H42">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="20"/>
@@ -5997,15 +6007,15 @@
         <v/>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -6024,16 +6034,16 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="H43">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="20"/>
@@ -6056,15 +6066,15 @@
         <v/>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -6143,7 +6153,7 @@
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44" ca="1" si="34">IF(ROW()=2,V44,OFFSET(U44,-1,0)&amp;IF(LEN(V44)=0,"",","&amp;V44))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" ref="V44" si="35">IF(T44&lt;&gt;1,"",
@@ -6238,7 +6248,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" ref="U45:U60" ca="1" si="42">IF(ROW()=2,V45,OFFSET(U45,-1,0)&amp;IF(LEN(V45)=0,"",","&amp;V45))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" ref="V45:V60" si="43">IF(T45&lt;&gt;1,"",
@@ -6309,7 +6319,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="43"/>
@@ -6368,7 +6378,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="43"/>
@@ -6427,7 +6437,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="43"/>
@@ -6486,7 +6496,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="43"/>
@@ -6545,7 +6555,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="43"/>
@@ -6604,7 +6614,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="43"/>
@@ -6655,7 +6665,7 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="43"/>
@@ -6723,7 +6733,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="43"/>
@@ -6782,7 +6792,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="43"/>
@@ -6841,7 +6851,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="43"/>
@@ -6900,7 +6910,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="43"/>
@@ -6959,7 +6969,7 @@
       </c>
       <c r="U57" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="43"/>
@@ -7018,7 +7028,7 @@
       </c>
       <c r="U58" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="43"/>
@@ -7077,7 +7087,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="43"/>
@@ -7136,7 +7146,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="43"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607AB29-04CA-46BA-BCBB-C8EDAB7E74C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE135EE7-83A9-4CB3-932F-AE61CE025641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -3334,7 +3334,7 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
@@ -3538,7 +3538,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -5276,7 +5276,7 @@
         <v>62</v>
       </c>
       <c r="H30">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="20"/>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500}</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500}</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5335,7 +5335,7 @@
         <v>48</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
@@ -5362,11 +5362,11 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5394,7 +5394,7 @@
         <v>62</v>
       </c>
       <c r="H32">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="20"/>
@@ -5421,11 +5421,11 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -5453,7 +5453,7 @@
         <v>48</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
@@ -5480,11 +5480,11 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4}</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7}</v>
+        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4}</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5512,7 +5512,7 @@
         <v>78</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="20"/>
@@ -5539,11 +5539,11 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
+        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5571,7 +5571,7 @@
         <v>62</v>
       </c>
       <c r="H35">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="20"/>
@@ -5598,11 +5598,11 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -5689,7 +5689,7 @@
         <v>48</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
@@ -5716,11 +5716,11 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5748,7 +5748,7 @@
         <v>62</v>
       </c>
       <c r="H38">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="20"/>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -5866,7 +5866,7 @@
         <v>62</v>
       </c>
       <c r="H40">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="20"/>
@@ -5893,11 +5893,11 @@
       </c>
       <c r="U40" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -5925,11 +5925,11 @@
         <v>48</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5952,11 +5952,11 @@
       </c>
       <c r="U41" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
+        <v>{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="H42">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="20"/>
@@ -6011,11 +6011,11 @@
       </c>
       <c r="U42" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="U43" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44" ca="1" si="34">IF(ROW()=2,V44,OFFSET(U44,-1,0)&amp;IF(LEN(V44)=0,"",","&amp;V44))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" ref="V44" si="35">IF(T44&lt;&gt;1,"",
@@ -6248,7 +6248,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" ref="U45:U60" ca="1" si="42">IF(ROW()=2,V45,OFFSET(U45,-1,0)&amp;IF(LEN(V45)=0,"",","&amp;V45))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" ref="V45:V60" si="43">IF(T45&lt;&gt;1,"",
@@ -6319,7 +6319,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="43"/>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="43"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="43"/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="43"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="43"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="43"/>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="43"/>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="43"/>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="43"/>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="43"/>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="43"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="U57" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="43"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="U58" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="43"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="43"/>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":7},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="43"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE135EE7-83A9-4CB3-932F-AE61CE025641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42282B89-3BB4-45B6-A19F-4100EDEF875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2224,10 +2224,6 @@
   </si>
   <si>
     <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip3401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2838,7 +2834,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3033,7 +3029,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -3048,28 +3044,28 @@
         <v>14</v>
       </c>
       <c r="K6" s="1">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="L6" s="1">
         <v>44390</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3128,7 +3124,7 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="11"/>
@@ -3182,7 +3178,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="11"/>
@@ -3246,7 +3242,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="11"/>
@@ -3309,7 +3305,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"25","ey":"2021","em":"7","ed":"14","td":14}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
@@ -3331,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
@@ -3538,7 +3534,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -4811,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:E43" ca="1" si="19">IF(ISBLANK(F23),"",
+        <f t="shared" ref="E23:E39" ca="1" si="19">IF(ISBLANK(F23),"",
 VLOOKUP(F23,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -4826,7 +4822,7 @@
         <v>2000</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I43" si="20">IF(F23="장비1상자",
+        <f t="shared" ref="I23:I39" si="20">IF(F23="장비1상자",
   IF(OR(G23&gt;3,H23&gt;5),"장비이상",""),
 IF(G23="GO",
   IF(H23&lt;100,"골드이상",""),
@@ -4836,13 +4832,13 @@
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J43" ca="1" si="21">IF(ISBLANK(K23),"",
+        <f t="shared" ref="J23:J39" ca="1" si="21">IF(ISBLANK(K23),"",
 VLOOKUP(K23,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ref="N23:N43" si="22">IF(K23="장비1상자",
+        <f t="shared" ref="N23:N39" si="22">IF(K23="장비1상자",
   IF(OR(L23&gt;3,M23&gt;5),"장비이상",""),
 IF(L23="GO",
   IF(M23&lt;100,"골드이상",""),
@@ -4852,7 +4848,7 @@
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" ref="O23:O43" ca="1" si="23">IF(ISBLANK(P23),"",
+        <f t="shared" ref="O23:O39" ca="1" si="23">IF(ISBLANK(P23),"",
 VLOOKUP(P23,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4923,7 +4919,7 @@
         <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" ref="S24:S43" si="25">IF(P24="장비1상자",
+        <f t="shared" ref="S24:S39" si="25">IF(P24="장비1상자",
   IF(OR(Q24&gt;3,R24&gt;5),"장비이상",""),
 IF(Q24="GO",
   IF(R24&lt;100,"골드이상",""),
@@ -4936,11 +4932,11 @@
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ref="U24:U43" ca="1" si="26">IF(ROW()=2,V24,OFFSET(U24,-1,0)&amp;IF(LEN(V24)=0,"",","&amp;V24))</f>
+        <f t="shared" ref="U24:U39" ca="1" si="26">IF(ROW()=2,V24,OFFSET(U24,-1,0)&amp;IF(LEN(V24)=0,"",","&amp;V24))</f>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24:V43" si="27">IF(T24&lt;&gt;1,"",
+        <f t="shared" ref="V24:V39" si="27">IF(T24&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C24
 &amp;","""&amp;D$1&amp;""":"&amp;D24
@@ -5273,10 +5269,10 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H30">
-        <v>1500</v>
+        <v>13</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="20"/>
@@ -5303,11 +5299,11 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13}</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500}</v>
+        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13}</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5332,10 +5328,10 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
@@ -5362,11 +5358,11 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5391,10 +5387,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H32">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="20"/>
@@ -5421,11 +5417,11 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -5450,10 +5446,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
@@ -5480,11 +5476,11 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4}</v>
+        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5512,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="20"/>
@@ -5539,11 +5535,11 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22}</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22}</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5568,10 +5564,10 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H35">
-        <v>2500</v>
+        <v>8</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="20"/>
@@ -5598,11 +5594,11 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8}</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8}</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5617,20 +5613,20 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="20"/>
@@ -5657,11 +5653,11 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12}</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12}</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5686,10 +5682,10 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
@@ -5716,11 +5712,11 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5745,10 +5741,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H38">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="20"/>
@@ -5775,11 +5771,11 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000}</v>
+        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5794,20 +5790,20 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
+        <v>be</v>
       </c>
       <c r="F39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="20"/>
@@ -5834,29 +5830,31 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1}</v>
+        <v>{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(A40,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="E40" ca="1" si="28">IF(ISBLANK(F40),"",
+VLOOKUP(F40,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="F40" t="s">
@@ -5866,56 +5864,92 @@
         <v>62</v>
       </c>
       <c r="H40">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I40" si="29">IF(F40="장비1상자",
+  IF(OR(G40&gt;3,H40&gt;5),"장비이상",""),
+IF(G40="GO",
+  IF(H40&lt;100,"골드이상",""),
+IF(G40="DI",
+  IF(H40&gt;29,"다이아너무많음",
+  IF(H40&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="J40" ca="1" si="30">IF(ISBLANK(K40),"",
+VLOOKUP(K40,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N40" si="31">IF(K40="장비1상자",
+  IF(OR(L40&gt;3,M40&gt;5),"장비이상",""),
+IF(L40="GO",
+  IF(M40&lt;100,"골드이상",""),
+IF(L40="DI",
+  IF(M40&gt;29,"다이아너무많음",
+  IF(M40&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="O40" ca="1" si="32">IF(ISBLANK(P40),"",
+VLOOKUP(P40,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="S40" si="33">IF(P40="장비1상자",
+  IF(OR(Q40&gt;3,R40&gt;5),"장비이상",""),
+IF(Q40="GO",
+  IF(R40&lt;100,"골드이상",""),
+IF(Q40="DI",
+  IF(R40&gt;29,"다이아너무많음",
+  IF(R40&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <f t="shared" ref="U40" ca="1" si="34">IF(ROW()=2,V40,OFFSET(U40,-1,0)&amp;IF(LEN(V40)=0,"",","&amp;V40))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500}</v>
+        <f t="shared" ref="V40" si="35">IF(T40&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A40&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C40
+&amp;","""&amp;D$1&amp;""":"&amp;D40
+&amp;IF(LEN(E40)=0,"",","""&amp;E$1&amp;""":"""&amp;E40&amp;"""")
+&amp;IF(LEN(G40)=0,"",","""&amp;G$1&amp;""":"""&amp;G40&amp;"""")
+&amp;IF(LEN(H40)=0,"",","""&amp;H$1&amp;""":"&amp;H40)
+&amp;IF(LEN(J40)=0,"",","""&amp;J$1&amp;""":"""&amp;J40&amp;"""")
+&amp;IF(LEN(L40)=0,"",","""&amp;L$1&amp;""":"""&amp;L40&amp;"""")
+&amp;IF(LEN(M40)=0,"",","""&amp;M$1&amp;""":"&amp;M40)
+&amp;IF(LEN(O40)=0,"",","""&amp;O$1&amp;""":"""&amp;O40&amp;"""")
+&amp;IF(LEN(Q40)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q40&amp;"""")
+&amp;IF(LEN(R40)=0,"",","""&amp;R$1&amp;""":"&amp;R40)&amp;"}")</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(A41,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="E41:E56" ca="1" si="36">IF(ISBLANK(F41),"",
+VLOOKUP(F41,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="F41" t="s">
@@ -5925,56 +5959,90 @@
         <v>48</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="I41:I56" si="37">IF(F41="장비1상자",
+  IF(OR(G41&gt;3,H41&gt;5),"장비이상",""),
+IF(G41="GO",
+  IF(H41&lt;100,"골드이상",""),
+IF(G41="DI",
+  IF(H41&gt;29,"다이아너무많음",
+  IF(H41&gt;9,"다이아다소많음","")),"")))</f>
+        <v>다이아다소많음</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="J41:J56" ca="1" si="38">IF(ISBLANK(K41),"",
+VLOOKUP(K41,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N41:N56" si="39">IF(K41="장비1상자",
+  IF(OR(L41&gt;3,M41&gt;5),"장비이상",""),
+IF(L41="GO",
+  IF(M41&lt;100,"골드이상",""),
+IF(L41="DI",
+  IF(M41&gt;29,"다이아너무많음",
+  IF(M41&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O41" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="O41:O56" ca="1" si="40">IF(ISBLANK(P41),"",
+VLOOKUP(P41,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="S41:S56" si="41">IF(P41="장비1상자",
+  IF(OR(Q41&gt;3,R41&gt;5),"장비이상",""),
+IF(Q41="GO",
+  IF(R41&lt;100,"골드이상",""),
+IF(Q41="DI",
+  IF(R41&gt;29,"다이아너무많음",
+  IF(R41&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <f t="shared" ref="U41:U56" ca="1" si="42">IF(ROW()=2,V41,OFFSET(U41,-1,0)&amp;IF(LEN(V41)=0,"",","&amp;V41))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5}</v>
+        <f t="shared" ref="V41:V56" si="43">IF(T41&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A41&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C41
+&amp;","""&amp;D$1&amp;""":"&amp;D41
+&amp;IF(LEN(E41)=0,"",","""&amp;E$1&amp;""":"""&amp;E41&amp;"""")
+&amp;IF(LEN(G41)=0,"",","""&amp;G$1&amp;""":"""&amp;G41&amp;"""")
+&amp;IF(LEN(H41)=0,"",","""&amp;H$1&amp;""":"&amp;H41)
+&amp;IF(LEN(J41)=0,"",","""&amp;J$1&amp;""":"""&amp;J41&amp;"""")
+&amp;IF(LEN(L41)=0,"",","""&amp;L$1&amp;""":"""&amp;L41&amp;"""")
+&amp;IF(LEN(M41)=0,"",","""&amp;M$1&amp;""":"&amp;M41)
+&amp;IF(LEN(O41)=0,"",","""&amp;O$1&amp;""":"""&amp;O41&amp;"""")
+&amp;IF(LEN(Q41)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q41&amp;"""")
+&amp;IF(LEN(R41)=0,"",","""&amp;R$1&amp;""":"&amp;R41)&amp;"}")</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(A42,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="F42" t="s">
@@ -5984,97 +6052,97 @@
         <v>62</v>
       </c>
       <c r="H42">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000}</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(A43,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>fe</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O43" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -6086,15 +6154,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" ref="E44" ca="1" si="28">IF(ISBLANK(F44),"",
-VLOOKUP(F44,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="F44" t="s">
@@ -6107,68 +6173,34 @@
         <v>2000</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" ref="I44" si="29">IF(F44="장비1상자",
-  IF(OR(G44&gt;3,H44&gt;5),"장비이상",""),
-IF(G44="GO",
-  IF(H44&lt;100,"골드이상",""),
-IF(G44="DI",
-  IF(H44&gt;29,"다이아너무많음",
-  IF(H44&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44" ca="1" si="30">IF(ISBLANK(K44),"",
-VLOOKUP(K44,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" ref="N44" si="31">IF(K44="장비1상자",
-  IF(OR(L44&gt;3,M44&gt;5),"장비이상",""),
-IF(L44="GO",
-  IF(M44&lt;100,"골드이상",""),
-IF(L44="DI",
-  IF(M44&gt;29,"다이아너무많음",
-  IF(M44&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" ref="O44" ca="1" si="32">IF(ISBLANK(P44),"",
-VLOOKUP(P44,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" ref="S44" si="33">IF(P44="장비1상자",
-  IF(OR(Q44&gt;3,R44&gt;5),"장비이상",""),
-IF(Q44="GO",
-  IF(R44&lt;100,"골드이상",""),
-IF(Q44="DI",
-  IF(R44&gt;29,"다이아너무많음",
-  IF(R44&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" ref="U44" ca="1" si="34">IF(ROW()=2,V44,OFFSET(U44,-1,0)&amp;IF(LEN(V44)=0,"",","&amp;V44))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" ref="V44" si="35">IF(T44&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A44&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C44
-&amp;","""&amp;D$1&amp;""":"&amp;D44
-&amp;IF(LEN(E44)=0,"",","""&amp;E$1&amp;""":"""&amp;E44&amp;"""")
-&amp;IF(LEN(G44)=0,"",","""&amp;G$1&amp;""":"""&amp;G44&amp;"""")
-&amp;IF(LEN(H44)=0,"",","""&amp;H$1&amp;""":"&amp;H44)
-&amp;IF(LEN(J44)=0,"",","""&amp;J$1&amp;""":"""&amp;J44&amp;"""")
-&amp;IF(LEN(L44)=0,"",","""&amp;L$1&amp;""":"""&amp;L44&amp;"""")
-&amp;IF(LEN(M44)=0,"",","""&amp;M$1&amp;""":"&amp;M44)
-&amp;IF(LEN(O44)=0,"",","""&amp;O$1&amp;""":"""&amp;O44&amp;"""")
-&amp;IF(LEN(Q44)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q44&amp;"""")
-&amp;IF(LEN(R44)=0,"",","""&amp;R$1&amp;""":"&amp;R44)&amp;"}")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -6181,15 +6213,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ref="E45:E60" ca="1" si="36">IF(ISBLANK(F45),"",
-VLOOKUP(F45,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="F45" t="s">
@@ -6199,71 +6229,37 @@
         <v>48</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45:I60" si="37">IF(F45="장비1상자",
-  IF(OR(G45&gt;3,H45&gt;5),"장비이상",""),
-IF(G45="GO",
-  IF(H45&lt;100,"골드이상",""),
-IF(G45="DI",
-  IF(H45&gt;29,"다이아너무많음",
-  IF(H45&gt;9,"다이아다소많음","")),"")))</f>
-        <v>다이아다소많음</v>
+        <f t="shared" si="37"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45:J60" ca="1" si="38">IF(ISBLANK(K45),"",
-VLOOKUP(K45,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" ref="N45:N60" si="39">IF(K45="장비1상자",
-  IF(OR(L45&gt;3,M45&gt;5),"장비이상",""),
-IF(L45="GO",
-  IF(M45&lt;100,"골드이상",""),
-IF(L45="DI",
-  IF(M45&gt;29,"다이아너무많음",
-  IF(M45&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" ref="O45:O60" ca="1" si="40">IF(ISBLANK(P45),"",
-VLOOKUP(P45,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" ref="S45:S60" si="41">IF(P45="장비1상자",
-  IF(OR(Q45&gt;3,R45&gt;5),"장비이상",""),
-IF(Q45="GO",
-  IF(R45&lt;100,"골드이상",""),
-IF(Q45="DI",
-  IF(R45&gt;29,"다이아너무많음",
-  IF(R45&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" ref="U45:U60" ca="1" si="42">IF(ROW()=2,V45,OFFSET(U45,-1,0)&amp;IF(LEN(V45)=0,"",","&amp;V45))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" ref="V45:V60" si="43">IF(T45&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A45&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C45
-&amp;","""&amp;D$1&amp;""":"&amp;D45
-&amp;IF(LEN(E45)=0,"",","""&amp;E$1&amp;""":"""&amp;E45&amp;"""")
-&amp;IF(LEN(G45)=0,"",","""&amp;G$1&amp;""":"""&amp;G45&amp;"""")
-&amp;IF(LEN(H45)=0,"",","""&amp;H$1&amp;""":"&amp;H45)
-&amp;IF(LEN(J45)=0,"",","""&amp;J$1&amp;""":"""&amp;J45&amp;"""")
-&amp;IF(LEN(L45)=0,"",","""&amp;L$1&amp;""":"""&amp;L45&amp;"""")
-&amp;IF(LEN(M45)=0,"",","""&amp;M$1&amp;""":"&amp;M45)
-&amp;IF(LEN(O45)=0,"",","""&amp;O$1&amp;""":"""&amp;O45&amp;"""")
-&amp;IF(LEN(Q45)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q45&amp;"""")
-&amp;IF(LEN(R45)=0,"",","""&amp;R$1&amp;""":"&amp;R45)&amp;"}")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -6276,7 +6272,7 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6319,7 +6315,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="43"/>
@@ -6335,7 +6331,7 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6348,14 +6344,14 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>2000</v>
+        <v>25</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -6378,7 +6374,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="43"/>
@@ -6394,7 +6390,7 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6416,14 +6412,6 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
       <c r="O48" t="str">
         <f t="shared" ca="1" si="40"/>
         <v/>
@@ -6437,7 +6425,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="43"/>
@@ -6453,10 +6441,10 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -6466,22 +6454,31 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H49">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="37"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" ca="1" si="40"/>
@@ -6496,7 +6493,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="43"/>
@@ -6505,14 +6502,14 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(A50,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6555,7 +6552,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="43"/>
@@ -6564,14 +6561,14 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(A51,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6584,14 +6581,14 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="37"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -6614,7 +6611,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="43"/>
@@ -6623,14 +6620,14 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(A52,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6652,6 +6649,14 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
+      <c r="J52" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="O52" t="str">
         <f t="shared" ca="1" si="40"/>
         <v/>
@@ -6665,7 +6670,7 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="43"/>
@@ -6674,17 +6679,17 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(A53,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -6697,7 +6702,7 @@
         <v>62</v>
       </c>
       <c r="H53">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="37"/>
@@ -6705,20 +6710,11 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>cu</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2</v>
-      </c>
-      <c r="L53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53">
-        <v>50</v>
+        <v/>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="39"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="O53" t="str">
         <f t="shared" ca="1" si="40"/>
@@ -6733,7 +6729,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="43"/>
@@ -6749,7 +6745,7 @@
         <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6792,7 +6788,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="43"/>
@@ -6808,7 +6804,7 @@
         <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6851,7 +6847,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="43"/>
@@ -6867,10 +6863,10 @@
         <v>복귀유저 누적 로그인</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -6910,245 +6906,9 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="str">
-        <f>VLOOKUP(A57,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57">
-        <v>2000</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="S57" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="str">
-        <f>VLOOKUP(A58,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58">
-        <v>2000</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="S58" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="str">
-        <f>VLOOKUP(A59,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59">
-        <v>2000</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="S59" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="str">
-        <f>VLOOKUP(A60,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60">
-        <v>2000</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="S60" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":1500},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":4},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":7,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":2000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"RE","cn1":1},{"id":"sl","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":2500},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":5},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":3000},{"id":"sl","da":14,"ad":1,"tp1":"fe","vl1":"Equip3401","cn1":1}</v>
-      </c>
-      <c r="V60" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7156,7 +6916,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60 P2:P60 K2:K60" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K56 P2:P56 F2:F56" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42282B89-3BB4-45B6-A19F-4100EDEF875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380EFAF-C3F9-4924-BC0B-881CE4E45EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="79">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2834,7 +2834,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3088,11 +3088,11 @@
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
@@ -3100,35 +3100,35 @@
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1">
-        <v>44348</v>
+        <v>44384</v>
       </c>
       <c r="L7" s="1">
-        <v>44363</v>
+        <v>44421</v>
       </c>
       <c r="M7" s="7">
         <f>L7-K7+1</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="11"/>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="11"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
@@ -3327,7 +3327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -3534,7 +3534,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -4936,7 +4936,7 @@
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24:V39" si="27">IF(T24&lt;&gt;1,"",
+        <f t="shared" ref="V24:V77" si="27">IF(T24&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C24
 &amp;","""&amp;D$1&amp;""":"&amp;D24
@@ -5751,19 +5751,35 @@
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="J38:J58" ca="1" si="28">IF(ISBLANK(K38),"",
+VLOOKUP(K38,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N38:N58" si="29">IF(K38="장비1상자",
+  IF(OR(L38&gt;3,M38&gt;5),"장비이상",""),
+IF(L38="GO",
+  IF(M38&lt;100,"골드이상",""),
+IF(L38="DI",
+  IF(M38&gt;29,"다이아너무많음",
+  IF(M38&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="O38:O58" ca="1" si="30">IF(ISBLANK(P38),"",
+VLOOKUP(P38,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="S38:S58" si="31">IF(P38="장비1상자",
+  IF(OR(Q38&gt;3,R38&gt;5),"장비이상",""),
+IF(Q38="GO",
+  IF(R38&lt;100,"골드이상",""),
+IF(Q38="DI",
+  IF(R38&gt;29,"다이아너무많음",
+  IF(R38&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T38">
@@ -5810,19 +5826,19 @@
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T39">
@@ -5852,22 +5868,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" ref="E40" ca="1" si="28">IF(ISBLANK(F40),"",
+        <f t="shared" ref="E40" ca="1" si="32">IF(ISBLANK(F40),"",
 VLOOKUP(F40,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
       <c r="F40" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>62</v>
       </c>
       <c r="H40">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" ref="I40" si="29">IF(F40="장비1상자",
+        <f t="shared" ref="I40" si="33">IF(F40="장비1상자",
   IF(OR(G40&gt;3,H40&gt;5),"장비이상",""),
 IF(G40="GO",
   IF(H40&lt;100,"골드이상",""),
@@ -5877,59 +5893,31 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40" ca="1" si="30">IF(ISBLANK(K40),"",
-VLOOKUP(K40,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" ref="N40" si="31">IF(K40="장비1상자",
-  IF(OR(L40&gt;3,M40&gt;5),"장비이상",""),
-IF(L40="GO",
-  IF(M40&lt;100,"골드이상",""),
-IF(L40="DI",
-  IF(M40&gt;29,"다이아너무많음",
-  IF(M40&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" ref="O40" ca="1" si="32">IF(ISBLANK(P40),"",
-VLOOKUP(P40,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" ref="S40" si="33">IF(P40="장비1상자",
-  IF(OR(Q40&gt;3,R40&gt;5),"장비이상",""),
-IF(Q40="GO",
-  IF(R40&lt;100,"골드이상",""),
-IF(Q40="DI",
-  IF(R40&gt;29,"다이아너무많음",
-  IF(R40&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" ref="U40" ca="1" si="34">IF(ROW()=2,V40,OFFSET(U40,-1,0)&amp;IF(LEN(V40)=0,"",","&amp;V40))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" ref="V40" si="35">IF(T40&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A40&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C40
-&amp;","""&amp;D$1&amp;""":"&amp;D40
-&amp;IF(LEN(E40)=0,"",","""&amp;E$1&amp;""":"""&amp;E40&amp;"""")
-&amp;IF(LEN(G40)=0,"",","""&amp;G$1&amp;""":"""&amp;G40&amp;"""")
-&amp;IF(LEN(H40)=0,"",","""&amp;H$1&amp;""":"&amp;H40)
-&amp;IF(LEN(J40)=0,"",","""&amp;J$1&amp;""":"""&amp;J40&amp;"""")
-&amp;IF(LEN(L40)=0,"",","""&amp;L$1&amp;""":"""&amp;L40&amp;"""")
-&amp;IF(LEN(M40)=0,"",","""&amp;M$1&amp;""":"&amp;M40)
-&amp;IF(LEN(O40)=0,"",","""&amp;O$1&amp;""":"""&amp;O40&amp;"""")
-&amp;IF(LEN(Q40)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q40&amp;"""")
-&amp;IF(LEN(R40)=0,"",","""&amp;R$1&amp;""":"&amp;R40)&amp;"}")</f>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -5947,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E56" ca="1" si="36">IF(ISBLANK(F41),"",
+        <f t="shared" ref="E41:E77" ca="1" si="35">IF(ISBLANK(F41),"",
 VLOOKUP(F41,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -5956,75 +5944,47 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" ref="I41:I56" si="37">IF(F41="장비1상자",
+        <f t="shared" ref="I41:I77" si="36">IF(F41="장비1상자",
   IF(OR(G41&gt;3,H41&gt;5),"장비이상",""),
 IF(G41="GO",
   IF(H41&lt;100,"골드이상",""),
 IF(G41="DI",
   IF(H41&gt;29,"다이아너무많음",
   IF(H41&gt;9,"다이아다소많음","")),"")))</f>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ref="J41:J56" ca="1" si="38">IF(ISBLANK(K41),"",
-VLOOKUP(K41,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" ref="N41:N56" si="39">IF(K41="장비1상자",
-  IF(OR(L41&gt;3,M41&gt;5),"장비이상",""),
-IF(L41="GO",
-  IF(M41&lt;100,"골드이상",""),
-IF(L41="DI",
-  IF(M41&gt;29,"다이아너무많음",
-  IF(M41&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O41" t="str">
-        <f t="shared" ref="O41:O56" ca="1" si="40">IF(ISBLANK(P41),"",
-VLOOKUP(P41,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" ref="S41:S56" si="41">IF(P41="장비1상자",
-  IF(OR(Q41&gt;3,R41&gt;5),"장비이상",""),
-IF(Q41="GO",
-  IF(R41&lt;100,"골드이상",""),
-IF(Q41="DI",
-  IF(R41&gt;29,"다이아너무많음",
-  IF(R41&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" ref="U41:U56" ca="1" si="42">IF(ROW()=2,V41,OFFSET(U41,-1,0)&amp;IF(LEN(V41)=0,"",","&amp;V41))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ref="U41:U77" ca="1" si="37">IF(ROW()=2,V41,OFFSET(U41,-1,0)&amp;IF(LEN(V41)=0,"",","&amp;V41))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" ref="V41:V56" si="43">IF(T41&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A41&amp;""""
-&amp;","""&amp;C$1&amp;""":"&amp;C41
-&amp;","""&amp;D$1&amp;""":"&amp;D41
-&amp;IF(LEN(E41)=0,"",","""&amp;E$1&amp;""":"""&amp;E41&amp;"""")
-&amp;IF(LEN(G41)=0,"",","""&amp;G$1&amp;""":"""&amp;G41&amp;"""")
-&amp;IF(LEN(H41)=0,"",","""&amp;H$1&amp;""":"&amp;H41)
-&amp;IF(LEN(J41)=0,"",","""&amp;J$1&amp;""":"""&amp;J41&amp;"""")
-&amp;IF(LEN(L41)=0,"",","""&amp;L$1&amp;""":"""&amp;L41&amp;"""")
-&amp;IF(LEN(M41)=0,"",","""&amp;M$1&amp;""":"&amp;M41)
-&amp;IF(LEN(O41)=0,"",","""&amp;O$1&amp;""":"""&amp;O41&amp;"""")
-&amp;IF(LEN(Q41)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q41&amp;"""")
-&amp;IF(LEN(R41)=0,"",","""&amp;R$1&amp;""":"&amp;R41)&amp;"}")</f>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -6042,48 +6002,48 @@
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -6101,48 +6061,48 @@
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O43" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -6160,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F44" t="s">
@@ -6170,38 +6130,38 @@
         <v>62</v>
       </c>
       <c r="H44">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -6219,48 +6179,48 @@
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
       </c>
       <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45">
         <v>2</v>
       </c>
-      <c r="G45" t="s">
-        <v>48</v>
-      </c>
       <c r="H45">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="37"/>
-        <v>다이아너무많음</v>
+        <f t="shared" si="36"/>
+        <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -6275,51 +6235,51 @@
         <v>7</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>fe</v>
       </c>
       <c r="F46" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H46">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O46" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -6337,48 +6297,48 @@
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F47" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="37"/>
-        <v>다이아다소많음</v>
+        <f t="shared" si="36"/>
+        <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -6396,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F48" t="s">
@@ -6406,30 +6366,38 @@
         <v>62</v>
       </c>
       <c r="H48">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O48" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -6444,78 +6412,69 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H49">
-        <v>10000</v>
+        <v>6</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>cu</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2</v>
-      </c>
-      <c r="L49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49">
-        <v>50</v>
+        <f t="shared" ca="1" si="28"/>
+        <v/>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="39"/>
-        <v>다이아너무많음</v>
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="O49" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(A50,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F50" t="s">
@@ -6525,69 +6484,85 @@
         <v>62</v>
       </c>
       <c r="H50">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ref="J50:J70" ca="1" si="38">IF(ISBLANK(K50),"",
+VLOOKUP(K50,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="N50:N70" si="39">IF(K50="장비1상자",
+  IF(OR(L50&gt;3,M50&gt;5),"장비이상",""),
+IF(L50="GO",
+  IF(M50&lt;100,"골드이상",""),
+IF(L50="DI",
+  IF(M50&gt;29,"다이아너무많음",
+  IF(M50&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O50" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="O50:O70" ca="1" si="40">IF(ISBLANK(P50),"",
+VLOOKUP(P50,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="S50:S70" si="41">IF(P50="장비1상자",
+  IF(OR(Q50&gt;3,R50&gt;5),"장비이상",""),
+IF(Q50="GO",
+  IF(R50&lt;100,"골드이상",""),
+IF(Q50="DI",
+  IF(R50&gt;29,"다이아너무많음",
+  IF(R50&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <f t="shared" ref="U50:U70" ca="1" si="42">IF(ROW()=2,V50,OFFSET(U50,-1,0)&amp;IF(LEN(V50)=0,"",","&amp;V50))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(A51,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H51">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J51" t="str">
@@ -6607,33 +6582,33 @@
         <v/>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(A52,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F52" t="s">
@@ -6643,10 +6618,10 @@
         <v>62</v>
       </c>
       <c r="H52">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J52" t="str">
@@ -6666,46 +6641,46 @@
         <v/>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(A53,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
       </c>
       <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
       <c r="H53">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J53" t="str">
@@ -6725,33 +6700,33 @@
         <v/>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(A54,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F54" t="s">
@@ -6761,10 +6736,10 @@
         <v>62</v>
       </c>
       <c r="H54">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J54" t="str">
@@ -6784,46 +6759,46 @@
         <v/>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(A55,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H55">
-        <v>2000</v>
+        <v>9</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J55" t="str">
@@ -6843,46 +6818,46 @@
         <v/>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(A56,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>fe</v>
       </c>
       <c r="F56" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H56">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J56" t="str">
@@ -6902,21 +6877,1276 @@
         <v/>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="str">
+        <f>VLOOKUP(A57,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="str">
+        <f>VLOOKUP(A58,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="str">
+        <f>VLOOKUP(A59,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59">
+        <v>500</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="str">
+        <f>VLOOKUP(A60,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="str">
+        <f>VLOOKUP(A61,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61">
+        <v>700</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="str">
+        <f>VLOOKUP(A62,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
+      </c>
+      <c r="F62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="str">
+        <f>VLOOKUP(A63,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>800</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="str">
+        <f>VLOOKUP(A64,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
+      </c>
+      <c r="F64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="str">
+        <f>VLOOKUP(A65,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="str">
+        <f>VLOOKUP(A66,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C66">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>be</v>
+      </c>
+      <c r="F66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="str">
+        <f>VLOOKUP(A67,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="str">
+        <f>VLOOKUP(A68,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68">
+        <v>600</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" t="str">
+        <f>VLOOKUP(A69,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>fe</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="str">
+        <f>VLOOKUP(A70,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>fe</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="str">
+        <f>VLOOKUP(A71,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71">
+        <v>2000</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" ref="J41:J77" ca="1" si="43">IF(ISBLANK(K71),"",
+VLOOKUP(K71,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" ref="N41:N77" si="44">IF(K71="장비1상자",
+  IF(OR(L71&gt;3,M71&gt;5),"장비이상",""),
+IF(L71="GO",
+  IF(M71&lt;100,"골드이상",""),
+IF(L71="DI",
+  IF(M71&gt;29,"다이아너무많음",
+  IF(M71&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" ref="O41:O77" ca="1" si="45">IF(ISBLANK(P71),"",
+VLOOKUP(P71,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" ref="S41:S77" si="46">IF(P71="장비1상자",
+  IF(OR(Q71&gt;3,R71&gt;5),"장비이상",""),
+IF(Q71="GO",
+  IF(R71&lt;100,"골드이상",""),
+IF(Q71="DI",
+  IF(R71&gt;29,"다이아너무많음",
+  IF(R71&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="str">
+        <f>VLOOKUP(A72,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72">
+        <v>2000</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="str">
+        <f>VLOOKUP(A73,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73">
+        <v>2000</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="str">
+        <f>VLOOKUP(A74,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74">
+        <v>2000</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="str">
+        <f>VLOOKUP(A75,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75">
+        <v>2000</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="str">
+        <f>VLOOKUP(A76,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76">
+        <v>2000</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="str">
+        <f>VLOOKUP(A77,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77">
+        <v>2000</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K56 P2:P56 F2:F56" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F77 K2:K77 P2:P77" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380EFAF-C3F9-4924-BC0B-881CE4E45EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEFB89-3C50-4EAD-BD9B-D36134F880CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2224,6 +2224,14 @@
   </si>
   <si>
     <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 요청(토벌 카운트 2회 이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2834,7 +2842,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2852,27 +2860,27 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E10" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
+        <f t="shared" ref="E3:E11" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
+        <f t="shared" ref="F3:F11" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G10" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
+        <f t="shared" ref="G3:G11" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
+        <f t="shared" ref="H3:H11" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I10" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
+        <f t="shared" ref="I3:I11" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J10" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
+        <f t="shared" ref="J3:J11" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
         <v/>
       </c>
       <c r="N3">
@@ -2940,7 +2948,7 @@
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q10" si="11">IF(O4&lt;&gt;1,"",
+        <f t="shared" ref="Q4:Q11" si="11">IF(O4&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A4&amp;""""
 &amp;IF(LEN(E4)=0,"",","""&amp;E$1&amp;""":"""&amp;E4&amp;"""")
 &amp;IF(LEN(F4)=0,"",","""&amp;F$1&amp;""":"""&amp;F4&amp;"""")
@@ -3196,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f t="shared" ref="D9:D10" si="12">IF(AND(C9=0,OR(NOT(ISBLANK(K9)),NOT(ISBLANK(L9)))),"날짜있음",
+        <f t="shared" ref="D9:D11" si="12">IF(AND(C9=0,OR(NOT(ISBLANK(K9)),NOT(ISBLANK(L9)))),"날짜있음",
 IF(AND(C9=1,OR(ISBLANK(K9),ISBLANK(L9))),"날짜없음",""))</f>
         <v/>
       </c>
@@ -3231,7 +3239,7 @@
         <v>44397</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:M10" si="13">L9-K9+1</f>
+        <f t="shared" ref="M9:M11" si="13">L9-K9+1</f>
         <v>38</v>
       </c>
       <c r="N9">
@@ -3310,6 +3318,69 @@
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
         <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>2021</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44391</v>
+      </c>
+      <c r="L11" s="1">
+        <v>44408</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="11"/>
+        <v>{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}</v>
       </c>
     </row>
   </sheetData>
@@ -3329,11 +3400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4832,13 +4903,13 @@
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J39" ca="1" si="21">IF(ISBLANK(K23),"",
+        <f t="shared" ref="J23:J37" ca="1" si="21">IF(ISBLANK(K23),"",
 VLOOKUP(K23,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ref="N23:N39" si="22">IF(K23="장비1상자",
+        <f t="shared" ref="N23:N37" si="22">IF(K23="장비1상자",
   IF(OR(L23&gt;3,M23&gt;5),"장비이상",""),
 IF(L23="GO",
   IF(M23&lt;100,"골드이상",""),
@@ -4848,7 +4919,7 @@
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" ref="O23:O39" ca="1" si="23">IF(ISBLANK(P23),"",
+        <f t="shared" ref="O23:O37" ca="1" si="23">IF(ISBLANK(P23),"",
 VLOOKUP(P23,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4919,7 +4990,7 @@
         <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" ref="S24:S39" si="25">IF(P24="장비1상자",
+        <f t="shared" ref="S24:S37" si="25">IF(P24="장비1상자",
   IF(OR(Q24&gt;3,R24&gt;5),"장비이상",""),
 IF(Q24="GO",
   IF(R24&lt;100,"골드이상",""),
@@ -5751,13 +5822,13 @@
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:J58" ca="1" si="28">IF(ISBLANK(K38),"",
+        <f t="shared" ref="J38:J49" ca="1" si="28">IF(ISBLANK(K38),"",
 VLOOKUP(K38,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" ref="N38:N58" si="29">IF(K38="장비1상자",
+        <f t="shared" ref="N38:N49" si="29">IF(K38="장비1상자",
   IF(OR(L38&gt;3,M38&gt;5),"장비이상",""),
 IF(L38="GO",
   IF(M38&lt;100,"골드이상",""),
@@ -5767,13 +5838,13 @@
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" ref="O38:O58" ca="1" si="30">IF(ISBLANK(P38),"",
+        <f t="shared" ref="O38:O49" ca="1" si="30">IF(ISBLANK(P38),"",
 VLOOKUP(P38,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f t="shared" ref="S38:S58" si="31">IF(P38="장비1상자",
+        <f t="shared" ref="S38:S49" si="31">IF(P38="장비1상자",
   IF(OR(Q38&gt;3,R38&gt;5),"장비이상",""),
 IF(Q38="GO",
   IF(R38&lt;100,"골드이상",""),
@@ -7746,13 +7817,13 @@
         <v/>
       </c>
       <c r="J71" t="str">
-        <f t="shared" ref="J41:J77" ca="1" si="43">IF(ISBLANK(K71),"",
+        <f t="shared" ref="J71:J77" ca="1" si="43">IF(ISBLANK(K71),"",
 VLOOKUP(K71,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N41:N77" si="44">IF(K71="장비1상자",
+        <f t="shared" ref="N71:N77" si="44">IF(K71="장비1상자",
   IF(OR(L71&gt;3,M71&gt;5),"장비이상",""),
 IF(L71="GO",
   IF(M71&lt;100,"골드이상",""),
@@ -7762,13 +7833,13 @@
         <v/>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ref="O41:O77" ca="1" si="45">IF(ISBLANK(P71),"",
+        <f t="shared" ref="O71:O77" ca="1" si="45">IF(ISBLANK(P71),"",
 VLOOKUP(P71,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S71" t="str">
-        <f t="shared" ref="S41:S77" si="46">IF(P71="장비1상자",
+        <f t="shared" ref="S71:S77" si="46">IF(P71="장비1상자",
   IF(OR(Q71&gt;3,R71&gt;5),"장비이상",""),
 IF(Q71="GO",
   IF(R71&lt;100,"골드이상",""),

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEFB89-3C50-4EAD-BD9B-D36134F880CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258AB97-0875-4309-A475-89F06EF2D21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -2699,7 +2699,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2842,7 +2842,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3372,15 +3372,15 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"rv","sy":"2021","sm":"7","sd":"14","ey":"2021","em":"8","ed":"1","td":0}</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258AB97-0875-4309-A475-89F06EF2D21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E759FF5-5FE2-4215-A464-FC2064F959DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -2842,7 +2842,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
@@ -3352,35 +3352,35 @@
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>44391</v>
+        <v>44399</v>
       </c>
       <c r="L11" s="1">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E759FF5-5FE2-4215-A464-FC2064F959DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E0F67-695B-41F0-8F48-CD80D3B520D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="83">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2232,6 +2232,14 @@
   </si>
   <si>
     <t>리뷰 요청(토벌 카운트 2회 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2842,7 +2850,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3033,11 +3041,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -3045,21 +3053,21 @@
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
-        <v>44376</v>
+        <v>44399</v>
       </c>
       <c r="L6" s="1">
-        <v>44390</v>
+        <v>44415</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -3069,11 +3077,11 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10}</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10}</v>
+        <v>{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10}</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3132,7 +3140,7 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="11"/>
@@ -3186,7 +3194,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="11"/>
@@ -3250,7 +3258,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="11"/>
@@ -3313,7 +3321,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
@@ -3352,21 +3360,21 @@
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1">
         <v>44399</v>
       </c>
       <c r="L11" s="1">
-        <v>44439</v>
+        <v>44406</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="13"/>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3376,11 +3384,11 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"6","sd":"29","ey":"2021","em":"7","ed":"14","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"9","ed":"1","td":0}</v>
+        <v>{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}</v>
       </c>
     </row>
   </sheetData>
@@ -3401,10 +3409,10 @@
   <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71:D71"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3605,7 +3613,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -5340,14 +5348,14 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5370,11 +5378,11 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13}</v>
+        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5399,14 +5407,14 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5429,11 +5437,11 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
+        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5458,10 +5466,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>5000</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="20"/>
@@ -5488,11 +5496,11 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
+        <v>{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -5517,14 +5525,14 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5547,11 +5555,11 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10}</v>
+        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5576,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>10000</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="20"/>
@@ -5606,11 +5614,11 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22}</v>
+        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5635,14 +5643,14 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5665,11 +5673,11 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8}</v>
+        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5694,10 +5702,10 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>7500</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="20"/>
@@ -5724,11 +5732,11 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12}</v>
+        <v>{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5753,14 +5761,14 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5783,11 +5791,11 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5812,14 +5820,14 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" ref="J38:J49" ca="1" si="28">IF(ISBLANK(K38),"",
@@ -5858,11 +5866,11 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11}</v>
+        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5881,24 +5889,33 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>be</v>
+        <v>cu</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39">
+        <v>15000</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="29"/>
@@ -5917,11 +5934,11 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000}</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3}</v>
+        <v>{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000}</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -5984,7 +6001,7 @@
       </c>
       <c r="U40" t="str">
         <f t="shared" ref="U40" ca="1" si="34">IF(ROW()=2,V40,OFFSET(U40,-1,0)&amp;IF(LEN(V40)=0,"",","&amp;V40))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6051,7 +6068,7 @@
       </c>
       <c r="U41" t="str">
         <f t="shared" ref="U41:U77" ca="1" si="37">IF(ROW()=2,V41,OFFSET(U41,-1,0)&amp;IF(LEN(V41)=0,"",","&amp;V41))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6110,7 +6127,7 @@
       </c>
       <c r="U42" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6169,7 +6186,7 @@
       </c>
       <c r="U43" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6228,7 +6245,7 @@
       </c>
       <c r="U44" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6287,7 +6304,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6346,7 +6363,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6405,7 +6422,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6464,7 +6481,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6523,7 +6540,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6598,7 +6615,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" ref="U50:U70" ca="1" si="42">IF(ROW()=2,V50,OFFSET(U50,-1,0)&amp;IF(LEN(V50)=0,"",","&amp;V50))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6657,7 +6674,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6716,7 +6733,7 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6775,7 +6792,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6834,7 +6851,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6893,7 +6910,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -6952,7 +6969,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7011,7 +7028,7 @@
       </c>
       <c r="U57" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7070,7 +7087,7 @@
       </c>
       <c r="U58" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7129,7 +7146,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7188,7 +7205,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7247,7 +7264,7 @@
       </c>
       <c r="U61" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7306,7 +7323,7 @@
       </c>
       <c r="U62" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7365,7 +7382,7 @@
       </c>
       <c r="U63" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7424,7 +7441,7 @@
       </c>
       <c r="U64" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7483,7 +7500,7 @@
       </c>
       <c r="U65" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7542,7 +7559,7 @@
       </c>
       <c r="U66" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7601,7 +7618,7 @@
       </c>
       <c r="U67" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7660,7 +7677,7 @@
       </c>
       <c r="U68" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7719,7 +7736,7 @@
       </c>
       <c r="U69" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7778,7 +7795,7 @@
       </c>
       <c r="U70" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7853,7 +7870,7 @@
       </c>
       <c r="U71" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="27"/>
@@ -7912,7 +7929,7 @@
       </c>
       <c r="U72" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="27"/>
@@ -7971,7 +7988,7 @@
       </c>
       <c r="U73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="27"/>
@@ -8030,7 +8047,7 @@
       </c>
       <c r="U74" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="27"/>
@@ -8089,7 +8106,7 @@
       </c>
       <c r="U75" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="27"/>
@@ -8148,7 +8165,7 @@
       </c>
       <c r="U76" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="27"/>
@@ -8207,7 +8224,7 @@
       </c>
       <c r="U77" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":13},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"EN","cn1":10},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"EN","cn1":22},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":8},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"EN","cn1":12},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"EN","cn1":11},{"id":"sl","da":10,"ad":1,"tp1":"be","vl1":"3","cn1":3},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="27"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E0F67-695B-41F0-8F48-CD80D3B520D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732AC9C4-189C-4AB8-A66A-95056ECFB291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -2850,7 +2850,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3348,11 +3348,11 @@
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
@@ -3360,21 +3360,21 @@
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>44399</v>
+        <v>44415</v>
       </c>
       <c r="L11" s="1">
-        <v>44406</v>
+        <v>44439</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"rv","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"7","ed":"30","td":0}</v>
+        <v>{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732AC9C4-189C-4AB8-A66A-95056ECFB291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025CCBB-0470-419A-8651-CC632500AD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="89">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2239,7 +2239,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
     <t>GO</t>
+  </si>
+  <si>
+    <t>Equip1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2706,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -2850,7 +2871,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3041,11 +3062,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -3053,35 +3074,35 @@
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>44399</v>
+        <v>44416</v>
       </c>
       <c r="L6" s="1">
-        <v>44415</v>
+        <v>44440</v>
       </c>
       <c r="M6" s="7">
         <f>L6-K6+1</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21}</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="11"/>
-        <v>{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10}</v>
+        <v>{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21}</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3140,7 +3161,7 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="11"/>
@@ -3194,7 +3215,7 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="11"/>
@@ -3258,7 +3279,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="11"/>
@@ -3321,7 +3342,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="11"/>
@@ -3384,7 +3405,7 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"7","sd":"22","ey":"2021","em":"8","ed":"8","td":10},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
@@ -3406,9 +3427,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3613,7 +3634,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -5015,7 +5036,7 @@
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24:V77" si="27">IF(T24&lt;&gt;1,"",
+        <f t="shared" ref="V24:V88" si="27">IF(T24&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C24
 &amp;","""&amp;D$1&amp;""":"&amp;D24
@@ -5348,14 +5369,14 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5378,11 +5399,11 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20}</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20}</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5410,11 +5431,11 @@
         <v>48</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="20"/>
-        <v>다이아너무많음</v>
+        <v>다이아다소많음</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5437,11 +5458,11 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15}</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5496,7 +5517,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -5515,24 +5536,24 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5555,11 +5576,11 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5587,7 +5608,7 @@
         <v>62</v>
       </c>
       <c r="H34">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="20"/>
@@ -5614,11 +5635,11 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
+        <v>{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5643,14 +5664,14 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="20"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5673,11 +5694,11 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5702,14 +5723,14 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H36">
-        <v>7500</v>
+        <v>20</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5732,11 +5753,11 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
+        <v>{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20}</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5761,14 +5782,14 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H37">
         <v>25</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="20"/>
-        <v>다이아다소많음</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5791,11 +5812,11 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25}</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
+        <v>{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25}</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5820,23 +5841,23 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="20"/>
-        <v>다이아너무많음</v>
+        <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:J49" ca="1" si="28">IF(ISBLANK(K38),"",
+        <f t="shared" ref="J38:J60" ca="1" si="28">IF(ISBLANK(K38),"",
 VLOOKUP(K38,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" ref="N38:N49" si="29">IF(K38="장비1상자",
+        <f t="shared" ref="N38:N60" si="29">IF(K38="장비1상자",
   IF(OR(L38&gt;3,M38&gt;5),"장비이상",""),
 IF(L38="GO",
   IF(M38&lt;100,"골드이상",""),
@@ -5846,13 +5867,13 @@
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" ref="O38:O49" ca="1" si="30">IF(ISBLANK(P38),"",
+        <f t="shared" ref="O38:O60" ca="1" si="30">IF(ISBLANK(P38),"",
 VLOOKUP(P38,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f t="shared" ref="S38:S49" si="31">IF(P38="장비1상자",
+        <f t="shared" ref="S38:S60" si="31">IF(P38="장비1상자",
   IF(OR(Q38&gt;3,R38&gt;5),"장비이상",""),
 IF(Q38="GO",
   IF(R38&lt;100,"골드이상",""),
@@ -5866,11 +5887,11 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
+        <v>{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5885,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -5898,24 +5919,15 @@
         <v>81</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="20"/>
-        <v>다이아너무많음</v>
+        <v>다이아다소많음</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>cu</v>
-      </c>
-      <c r="K39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M39">
-        <v>15000</v>
+        <v/>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="29"/>
@@ -5934,44 +5946,44 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000}</v>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000}</v>
+        <v>{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10}</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(A40,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" ref="E40" ca="1" si="32">IF(ISBLANK(F40),"",
+        <f t="shared" ref="E40:E50" ca="1" si="32">IF(ISBLANK(F40),"",
 VLOOKUP(F40,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>fe</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H40">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" ref="I40" si="33">IF(F40="장비1상자",
+        <f t="shared" ref="I40:I50" si="33">IF(F40="장비1상자",
   IF(OR(G40&gt;3,H40&gt;5),"장비이상",""),
 IF(G40="GO",
   IF(H40&lt;100,"골드이상",""),
@@ -5981,1135 +5993,1164 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="J40:J50" ca="1" si="34">IF(ISBLANK(K40),"",
+VLOOKUP(K40,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N40:N50" si="35">IF(K40="장비1상자",
+  IF(OR(L40&gt;3,M40&gt;5),"장비이상",""),
+IF(L40="GO",
+  IF(M40&lt;100,"골드이상",""),
+IF(L40="DI",
+  IF(M40&gt;29,"다이아너무많음",
+  IF(M40&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="O40:O50" ca="1" si="36">IF(ISBLANK(P40),"",
+VLOOKUP(P40,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="S40:S50" si="37">IF(P40="장비1상자",
+  IF(OR(Q40&gt;3,R40&gt;5),"장비이상",""),
+IF(Q40="GO",
+  IF(R40&lt;100,"골드이상",""),
+IF(Q40="DI",
+  IF(R40&gt;29,"다이아너무많음",
+  IF(R40&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" ref="U40" ca="1" si="34">IF(ROW()=2,V40,OFFSET(U40,-1,0)&amp;IF(LEN(V40)=0,"",","&amp;V40))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <f t="shared" ref="U40:U50" ca="1" si="38">IF(ROW()=2,V40,OFFSET(U40,-1,0)&amp;IF(LEN(V40)=0,"",","&amp;V40))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <f t="shared" ref="V40:V50" ca="1" si="39">IF(T40&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A40&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C40
+&amp;","""&amp;D$1&amp;""":"&amp;D40
+&amp;IF(LEN(E40)=0,"",","""&amp;E$1&amp;""":"""&amp;E40&amp;"""")
+&amp;IF(LEN(G40)=0,"",","""&amp;G$1&amp;""":"""&amp;G40&amp;"""")
+&amp;IF(LEN(H40)=0,"",","""&amp;H$1&amp;""":"&amp;H40)
+&amp;IF(LEN(J40)=0,"",","""&amp;J$1&amp;""":"""&amp;J40&amp;"""")
+&amp;IF(LEN(L40)=0,"",","""&amp;L$1&amp;""":"""&amp;L40&amp;"""")
+&amp;IF(LEN(M40)=0,"",","""&amp;M$1&amp;""":"&amp;M40)
+&amp;IF(LEN(O40)=0,"",","""&amp;O$1&amp;""":"""&amp;O40&amp;"""")
+&amp;IF(LEN(Q40)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q40&amp;"""")
+&amp;IF(LEN(R40)=0,"",","""&amp;R$1&amp;""":"&amp;R40)&amp;"}")</f>
+        <v>{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(A41,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E77" ca="1" si="35">IF(ISBLANK(F41),"",
-VLOOKUP(F41,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F41" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>5000</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" ref="I41:I77" si="36">IF(F41="장비1상자",
-  IF(OR(G41&gt;3,H41&gt;5),"장비이상",""),
-IF(G41="GO",
-  IF(H41&lt;100,"골드이상",""),
-IF(G41="DI",
-  IF(H41&gt;29,"다이아너무많음",
-  IF(H41&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O41" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" ref="U41:U77" ca="1" si="37">IF(ROW()=2,V41,OFFSET(U41,-1,0)&amp;IF(LEN(V41)=0,"",","&amp;V41))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(A42,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F42" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>다이아다소많음</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25}</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(A43,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O43" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(A44,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F44" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H44">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T44">
         <v>1</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15}</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(A45,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T45">
         <v>1</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500}</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(A46,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>fe</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O46" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T46">
         <v>1</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35}</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(A47,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000}</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(A48,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F48" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H48">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O48" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30}</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(A49,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F49" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>5000</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O49" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000}</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(A50,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>서프라이즈 누적 오리진 상자</v>
+        <v>서프라이즈 누적 로그인</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="F50" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H50">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>다이아너무많음</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" ref="J50:J70" ca="1" si="38">IF(ISBLANK(K50),"",
-VLOOKUP(K50,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50">
+        <v>20000</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" ref="N50:N70" si="39">IF(K50="장비1상자",
-  IF(OR(L50&gt;3,M50&gt;5),"장비이상",""),
-IF(L50="GO",
-  IF(M50&lt;100,"골드이상",""),
-IF(L50="DI",
-  IF(M50&gt;29,"다이아너무많음",
-  IF(M50&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O50" t="str">
-        <f t="shared" ref="O50:O70" ca="1" si="40">IF(ISBLANK(P50),"",
-VLOOKUP(P50,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S50" t="str">
-        <f t="shared" ref="S50:S70" si="41">IF(P50="장비1상자",
-  IF(OR(Q50&gt;3,R50&gt;5),"장비이상",""),
-IF(Q50="GO",
-  IF(R50&lt;100,"골드이상",""),
-IF(Q50="DI",
-  IF(R50&gt;29,"다이아너무많음",
-  IF(R50&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" ref="U50:U70" ca="1" si="42">IF(ROW()=2,V50,OFFSET(U50,-1,0)&amp;IF(LEN(V50)=0,"",","&amp;V50))</f>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(A51,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="E51" ca="1" si="40">IF(ISBLANK(F51),"",
+VLOOKUP(F51,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="F51" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I51" si="41">IF(F51="장비1상자",
+  IF(OR(G51&gt;3,H51&gt;5),"장비이상",""),
+IF(G51="GO",
+  IF(H51&lt;100,"골드이상",""),
+IF(G51="DI",
+  IF(H51&gt;29,"다이아너무많음",
+  IF(H51&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O51" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <f t="shared" ref="U51" ca="1" si="42">IF(ROW()=2,V51,OFFSET(U51,-1,0)&amp;IF(LEN(V51)=0,"",","&amp;V51))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(A52,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="E52:E88" ca="1" si="43">IF(ISBLANK(F52),"",
+VLOOKUP(F52,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="F52" t="s">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H52">
-        <v>800</v>
+        <v>7</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I52:I88" si="44">IF(F52="장비1상자",
+  IF(OR(G52&gt;3,H52&gt;5),"장비이상",""),
+IF(G52="GO",
+  IF(H52&lt;100,"골드이상",""),
+IF(G52="DI",
+  IF(H52&gt;29,"다이아너무많음",
+  IF(H52&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O52" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <f t="shared" ref="U52:U88" ca="1" si="45">IF(ROW()=2,V52,OFFSET(U52,-1,0)&amp;IF(LEN(V52)=0,"",","&amp;V52))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <v>{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(A53,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53">
         <v>2</v>
       </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O53" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(A54,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>be</v>
       </c>
       <c r="F54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O54" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T54">
         <v>1</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
+        <v>{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(A55,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O55" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
+        <v>{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(A56,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>fe</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>be</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O56" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(A57,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>fe</v>
       </c>
       <c r="F57" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H57">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O57" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T57">
         <v>1</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
+        <v>{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(A58,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>78</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O58" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T58">
         <v>1</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
+        <v>{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5}</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(A59,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F59" t="s">
@@ -7119,97 +7160,97 @@
         <v>62</v>
       </c>
       <c r="H59">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O59" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
+        <v>{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(A60,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T60">
         <v>1</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
+        <v>{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -7221,13 +7262,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F61" t="s">
@@ -7237,38 +7278,54 @@
         <v>62</v>
       </c>
       <c r="H61">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ref="J61:J81" ca="1" si="46">IF(ISBLANK(K61),"",
+VLOOKUP(K61,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="N61:N81" si="47">IF(K61="장비1상자",
+  IF(OR(L61&gt;3,M61&gt;5),"장비이상",""),
+IF(L61="GO",
+  IF(M61&lt;100,"골드이상",""),
+IF(L61="DI",
+  IF(M61&gt;29,"다이아너무많음",
+  IF(M61&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="O61" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="O61:O81" ca="1" si="48">IF(ISBLANK(P61),"",
+VLOOKUP(P61,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="S61:S81" si="49">IF(P61="장비1상자",
+  IF(OR(Q61&gt;3,R61&gt;5),"장비이상",""),
+IF(Q61="GO",
+  IF(R61&lt;100,"골드이상",""),
+IF(Q61="DI",
+  IF(R61&gt;29,"다이아너무많음",
+  IF(R61&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <f t="shared" ref="U61:U81" ca="1" si="50">IF(ROW()=2,V61,OFFSET(U61,-1,0)&amp;IF(LEN(V61)=0,"",","&amp;V61))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
+        <v>{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -7280,54 +7337,54 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O62" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
+        <v>{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -7339,13 +7396,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F63" t="s">
@@ -7358,35 +7415,35 @@
         <v>800</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O63" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
+        <v>{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -7398,13 +7455,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>be</v>
       </c>
       <c r="F64" t="s">
@@ -7417,35 +7474,35 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O64" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
+        <v>{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -7457,54 +7514,54 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F65" t="s">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O65" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
+        <v>{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900}</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -7516,54 +7573,54 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>be</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O66" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+        <v>{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9}</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -7575,54 +7632,54 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>fe</v>
       </c>
       <c r="F67" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+        <v>{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -7634,13 +7691,13 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F68" t="s">
@@ -7650,38 +7707,38 @@
         <v>62</v>
       </c>
       <c r="H68">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O68" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T68">
         <v>1</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+        <v>{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000}</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -7693,54 +7750,54 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>fe</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O69" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T69">
         <v>1</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+        <v>{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6}</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -7752,147 +7809,131 @@
         <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>fe</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O70" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T70">
         <v>1</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <v>{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500}</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(A71,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F71" t="s">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H71">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f t="shared" ref="J71:J77" ca="1" si="43">IF(ISBLANK(K71),"",
-VLOOKUP(K71,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N77" si="44">IF(K71="장비1상자",
-  IF(OR(L71&gt;3,M71&gt;5),"장비이상",""),
-IF(L71="GO",
-  IF(M71&lt;100,"골드이상",""),
-IF(L71="DI",
-  IF(M71&gt;29,"다이아너무많음",
-  IF(M71&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ref="O71:O77" ca="1" si="45">IF(ISBLANK(P71),"",
-VLOOKUP(P71,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S71" t="str">
-        <f t="shared" ref="S71:S77" si="46">IF(P71="장비1상자",
-  IF(OR(Q71&gt;3,R71&gt;5),"장비이상",""),
-IF(Q71="GO",
-  IF(R71&lt;100,"골드이상",""),
-IF(Q71="DI",
-  IF(R71&gt;29,"다이아너무많음",
-  IF(R71&gt;9,"다이아다소많음","")),"")))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2}</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(A72,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F72" t="s">
@@ -7902,115 +7943,115 @@
         <v>62</v>
       </c>
       <c r="H72">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O72" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700}</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(A73,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>be</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>62</v>
-      </c>
       <c r="H73">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O73" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1}</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(A74,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F74" t="s">
@@ -8020,213 +8061,878 @@
         <v>62</v>
       </c>
       <c r="H74">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O74" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800}</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(A75,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>be</v>
       </c>
       <c r="F75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75">
         <v>2</v>
       </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
       <c r="H75">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O75" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S75" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1}</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(A76,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 누적 오리진 상자</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H76">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O76" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="S76" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3}</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(A77,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C77">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>be</v>
+      </c>
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="str">
+        <f>VLOOKUP(A78,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C78">
+        <v>28</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" t="str">
+        <f>VLOOKUP(A79,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C79">
+        <v>29</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" t="str">
+        <f>VLOOKUP(A80,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>fe</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="str">
+        <f>VLOOKUP(A81,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 누적 오리진 상자</v>
+      </c>
+      <c r="C81">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>fe</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(A82,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C77">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82">
+        <v>2000</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" ref="J82:J88" ca="1" si="51">IF(ISBLANK(K82),"",
+VLOOKUP(K82,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" ref="N82:N88" si="52">IF(K82="장비1상자",
+  IF(OR(L82&gt;3,M82&gt;5),"장비이상",""),
+IF(L82="GO",
+  IF(M82&lt;100,"골드이상",""),
+IF(L82="DI",
+  IF(M82&gt;29,"다이아너무많음",
+  IF(M82&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" ref="O82:O88" ca="1" si="53">IF(ISBLANK(P82),"",
+VLOOKUP(P82,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" ref="S82:S88" si="54">IF(P82="장비1상자",
+  IF(OR(Q82&gt;3,R82&gt;5),"장비이상",""),
+IF(Q82="GO",
+  IF(R82&lt;100,"골드이상",""),
+IF(Q82="DI",
+  IF(R82&gt;29,"다이아너무많음",
+  IF(R82&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(A83,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83">
+        <v>2000</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(A84,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84">
+        <v>2000</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(A85,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85">
+        <v>2000</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(A86,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86">
+        <v>2000</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(A87,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87">
+        <v>2000</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(A88,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C88">
         <v>7</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" ca="1" si="35"/>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F88" t="s">
         <v>2</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G88" t="s">
         <v>62</v>
       </c>
-      <c r="H77">
+      <c r="H88">
         <v>2000</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="N77" t="str">
+      <c r="I88" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="O77" t="str">
+      <c r="J88" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="S77" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":10,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":15000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
-      </c>
-      <c r="V77" t="str">
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V88" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8234,7 +8940,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F77 K2:K77 P2:P77" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F88 K2:K88 P2:P88" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025CCBB-0470-419A-8651-CC632500AD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA1ECC-F154-4314-8755-E3959FA70D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="91">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2261,6 +2261,14 @@
   </si>
   <si>
     <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2725,11 +2733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2889,27 +2895,27 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E11" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
+        <f t="shared" ref="E3:E12" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
+        <f t="shared" ref="F3:F12" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
+        <f t="shared" ref="G3:G12" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
+        <f t="shared" ref="H3:H12" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
+        <f t="shared" ref="I3:I12" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J11" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
+        <f t="shared" ref="J3:J12" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
         <v/>
       </c>
       <c r="N3">
@@ -3410,6 +3416,78 @@
       <c r="Q11" t="str">
         <f t="shared" si="11"/>
         <v>{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="15">IF(AND(C12=0,OR(NOT(ISBLANK(K12)),NOT(ISBLANK(L12)))),"날짜있음",
+IF(AND(C12=1,OR(ISBLANK(K12),ISBLANK(L12))),"날짜없음",""))</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>2021</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44415</v>
+      </c>
+      <c r="L12" s="1">
+        <v>44439</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="16">L12-K12+1</f>
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12" ca="1" si="17">IF(ROW()=2,Q12,OFFSET(P12,-1,0)&amp;IF(LEN(Q12)=0,"",","&amp;Q12))</f>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12" si="18">IF(O12&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A12&amp;""""
+&amp;IF(LEN(E12)=0,"",","""&amp;E$1&amp;""":"""&amp;E12&amp;"""")
+&amp;IF(LEN(F12)=0,"",","""&amp;F$1&amp;""":"""&amp;F12&amp;"""")
+&amp;IF(LEN(G12)=0,"",","""&amp;G$1&amp;""":"""&amp;G12&amp;"""")
+&amp;IF(LEN(H12)=0,"",","""&amp;H$1&amp;""":"""&amp;H12&amp;"""")
+&amp;IF(LEN(I12)=0,"",","""&amp;I$1&amp;""":"""&amp;I12&amp;"""")
+&amp;IF(LEN(J12)=0,"",","""&amp;J$1&amp;""":"""&amp;J12&amp;"""")
+&amp;","""&amp;N$1&amp;""":"&amp;N12&amp;"}")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3429,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA1ECC-F154-4314-8755-E3959FA70D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FCBA7-8F9F-44AF-A0CB-3BEA8AA532C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1063,6 +1063,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D9C591DE-63B7-4FC0-99F2-6BFF8F087C06}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포인트 상점에만 작동하는 챕터 제한</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1911,12 +1925,130 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C8C87863-6E32-48B7-BE5B-AED10C1CFA6F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포인트샵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ps </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상품의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가격으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쓰인다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
   <si>
     <t>tp_Verify</t>
   </si>
@@ -2271,6 +2403,41 @@
     <t>ps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍테이블</t>
+  </si>
+  <si>
+    <t>드랍테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서프라이즈 노드워 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2417,7 +2584,12 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -2733,9 +2905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2753,7 +2927,7 @@
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1">
+    <row r="1" spans="1:20" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -2796,20 +2970,23 @@
       <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2854,15 +3031,15 @@
       <c r="N2">
         <v>7</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P3" ca="1" si="1">IF(ROW()=2,Q2,OFFSET(P2,-1,0)&amp;IF(LEN(Q2)=0,"",","&amp;Q2))</f>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q3" ca="1" si="1">IF(ROW()=2,R2,OFFSET(Q2,-1,0)&amp;IF(LEN(R2)=0,"",","&amp;R2))</f>
         <v>{"id":"na","td":7}</v>
       </c>
-      <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q3" si="2">IF(O2&lt;&gt;1,"",
+      <c r="R2" t="str">
+        <f>IF(P2&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;IF(LEN(E2)=0,"",","""&amp;E$1&amp;""":"""&amp;E2&amp;"""")
 &amp;IF(LEN(F2)=0,"",","""&amp;F$1&amp;""":"""&amp;F2&amp;"""")
@@ -2870,17 +3047,19 @@
 &amp;IF(LEN(H2)=0,"",","""&amp;H$1&amp;""":"""&amp;H2&amp;"""")
 &amp;IF(LEN(I2)=0,"",","""&amp;I$1&amp;""":"""&amp;I2&amp;"""")
 &amp;IF(LEN(J2)=0,"",","""&amp;J$1&amp;""":"""&amp;J2&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N2&amp;"}")</f>
+&amp;","""&amp;N$1&amp;""":"&amp;N2
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
+&amp;"}")</f>
         <v>{"id":"na","td":7}</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
+IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2895,45 +3074,55 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E12" si="3">IF(ISBLANK($K3),"",YEAR($K3))</f>
+        <f t="shared" ref="E3:E13" si="2">IF(ISBLANK($K3),"",YEAR($K3))</f>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F12" si="4">IF(ISBLANK($K3),"",MONTH($K3))</f>
+        <f t="shared" ref="F3:F13" si="3">IF(ISBLANK($K3),"",MONTH($K3))</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G12" si="5">IF(ISBLANK($K3),"",DAY($K3))</f>
+        <f t="shared" ref="G3:G13" si="4">IF(ISBLANK($K3),"",DAY($K3))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H12" si="6">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
+        <f t="shared" ref="H3:H13" si="5">IF(ISBLANK($L3),"",YEAR($L3+1))</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I12" si="7">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
+        <f t="shared" ref="I3:I13" si="6">IF(ISBLANK($L3),"",MONTH($L3+1))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J12" si="8">IF(ISBLANK($L3),"",DAY($L3+1))</f>
+        <f t="shared" ref="J3:J13" si="7">IF(ISBLANK($L3),"",DAY($L3+1))</f>
         <v/>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="str">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>{"id":"na","td":7},{"id":"no","td":10}</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" si="2"/>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R12" si="8">IF(P3&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
+&amp;IF(LEN(E3)=0,"",","""&amp;E$1&amp;""":"""&amp;E3&amp;"""")
+&amp;IF(LEN(F3)=0,"",","""&amp;F$1&amp;""":"""&amp;F3&amp;"""")
+&amp;IF(LEN(G3)=0,"",","""&amp;G$1&amp;""":"""&amp;G3&amp;"""")
+&amp;IF(LEN(H3)=0,"",","""&amp;H$1&amp;""":"""&amp;H3&amp;"""")
+&amp;IF(LEN(I3)=0,"",","""&amp;I$1&amp;""":"""&amp;I3&amp;"""")
+&amp;IF(LEN(J3)=0,"",","""&amp;J$1&amp;""":"""&amp;J3&amp;"""")
+&amp;","""&amp;N$1&amp;""":"&amp;N3
+&amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"""&amp;O3&amp;"""")
+&amp;"}")</f>
         <v>{"id":"no","td":10}</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2949,53 +3138,45 @@
         <v/>
       </c>
       <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P10" ca="1" si="10">IF(ROW()=2,Q4,OFFSET(P4,-1,0)&amp;IF(LEN(Q4)=0,"",","&amp;Q4))</f>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q11" ca="1" si="10">IF(ROW()=2,R4,OFFSET(Q4,-1,0)&amp;IF(LEN(R4)=0,"",","&amp;R4))</f>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q11" si="11">IF(O4&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A4&amp;""""
-&amp;IF(LEN(E4)=0,"",","""&amp;E$1&amp;""":"""&amp;E4&amp;"""")
-&amp;IF(LEN(F4)=0,"",","""&amp;F$1&amp;""":"""&amp;F4&amp;"""")
-&amp;IF(LEN(G4)=0,"",","""&amp;G$1&amp;""":"""&amp;G4&amp;"""")
-&amp;IF(LEN(H4)=0,"",","""&amp;H$1&amp;""":"""&amp;H4&amp;"""")
-&amp;IF(LEN(I4)=0,"",","""&amp;I$1&amp;""":"""&amp;I4&amp;"""")
-&amp;IF(LEN(J4)=0,"",","""&amp;J$1&amp;""":"""&amp;J4&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N4&amp;"}")</f>
+      <c r="R4" t="str">
+        <f t="shared" si="8"/>
         <v>{"id":"co","td":4}</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3036,19 +3217,19 @@
       <c r="N5">
         <v>7</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4}</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3063,27 +3244,27 @@
         <v/>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="3"/>
-        <v>2021</v>
-      </c>
-      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="H6">
+        <v>2021</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K6" s="1">
@@ -3099,19 +3280,19 @@
       <c r="N6">
         <v>21</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="str">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21}</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="11"/>
+      <c r="R6" t="str">
+        <f t="shared" si="8"/>
         <v>{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21}</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3126,27 +3307,27 @@
         <v/>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
-        <v>2021</v>
-      </c>
-      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="H7">
+        <v>2021</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="K7" s="1">
@@ -3162,263 +3343,274 @@
       <c r="N7">
         <v>31</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="str">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="11"/>
+      <c r="R7" t="str">
+        <f t="shared" si="8"/>
         <v>{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>IF(AND(C8=0,OR(NOT(ISBLANK(K8)),NOT(ISBLANK(L8)))),"날짜있음",
+        <f t="shared" ref="D8" si="11">IF(AND(C8=0,OR(NOT(ISBLANK(K8)),NOT(ISBLANK(L8)))),"날짜있음",
 IF(AND(C8=1,OR(ISBLANK(K8),ISBLANK(L8))),"날짜없음",""))</f>
         <v/>
       </c>
-      <c r="E8" t="str">
-        <f>IF(ISBLANK($K8),"",YEAR($K8))</f>
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <f>IF(ISBLANK($K8),"",MONTH($K8))</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <f>IF(ISBLANK($K8),"",DAY($K8))</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <f>IF(ISBLANK($L8),"",YEAR($L8+1))</f>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f>IF(ISBLANK($L8),"",MONTH($L8+1))</f>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f>IF(ISBLANK($L8),"",DAY($L8+1))</f>
-        <v/>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>2021</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44419</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44427</v>
+      </c>
+      <c r="M8" s="7">
+        <f>L8-K8+1</f>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="str">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ref="Q8" ca="1" si="12">IF(ROW()=2,R8,OFFSET(Q8,-1,0)&amp;IF(LEN(R8)=0,"",","&amp;R8))</f>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ref="R8" si="13">IF(P8&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A8&amp;""""
+&amp;IF(LEN(E8)=0,"",","""&amp;E$1&amp;""":"""&amp;E8&amp;"""")
+&amp;IF(LEN(F8)=0,"",","""&amp;F$1&amp;""":"""&amp;F8&amp;"""")
+&amp;IF(LEN(G8)=0,"",","""&amp;G$1&amp;""":"""&amp;G8&amp;"""")
+&amp;IF(LEN(H8)=0,"",","""&amp;H$1&amp;""":"""&amp;H8&amp;"""")
+&amp;IF(LEN(I8)=0,"",","""&amp;I$1&amp;""":"""&amp;I8&amp;"""")
+&amp;IF(LEN(J8)=0,"",","""&amp;J$1&amp;""":"""&amp;J8&amp;"""")
+&amp;","""&amp;N$1&amp;""":"&amp;N8
+&amp;IF(LEN(O8)=0,"",","""&amp;O$1&amp;""":"""&amp;O8&amp;"""")
+&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>IF(AND(C9=0,OR(NOT(ISBLANK(K9)),NOT(ISBLANK(L9)))),"날짜있음",
+IF(AND(C9=1,OR(ISBLANK(K9),ISBLANK(L9))),"날짜없음",""))</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISBLANK($K9),"",YEAR($K9))</f>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ISBLANK($K9),"",MONTH($K9))</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(ISBLANK($K9),"",DAY($K9))</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(ISBLANK($L9),"",YEAR($L9+1))</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(ISBLANK($L9),"",MONTH($L9+1))</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(ISBLANK($L9),"",DAY($L9+1))</f>
+        <v/>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
+      <c r="R9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" ref="D9:D11" si="12">IF(AND(C9=0,OR(NOT(ISBLANK(K9)),NOT(ISBLANK(L9)))),"날짜있음",
-IF(AND(C9=1,OR(ISBLANK(K9),ISBLANK(L9))),"날짜없음",""))</f>
-        <v/>
-      </c>
-      <c r="E9">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ref="D10:D11" si="14">IF(AND(C10=0,OR(NOT(ISBLANK(K10)),NOT(ISBLANK(L10)))),"날짜있음",
+IF(AND(C10=1,OR(ISBLANK(K10),ISBLANK(L10))),"날짜없음",""))</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="H9">
+      <c r="I10">
         <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K10" s="1">
         <v>44360</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>44397</v>
       </c>
-      <c r="M9" s="7">
-        <f t="shared" ref="M9:M11" si="13">L9-K9+1</f>
+      <c r="M10" s="7">
+        <f t="shared" ref="M10:M11" si="15">L10-K10+1</f>
         <v>38</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="str">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
+      <c r="R10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E10">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
+      <c r="I11">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>2020</v>
-      </c>
-      <c r="I10">
+      <c r="J11">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>44044</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>44063</v>
       </c>
-      <c r="M10" s="7">
-        <f t="shared" si="13"/>
+      <c r="M11" s="7">
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="str">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31}</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>2021</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="J11">
+      <c r="R11" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>44415</v>
-      </c>
-      <c r="L11" s="1">
-        <v>44439</v>
-      </c>
-      <c r="M11" s="7">
-        <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" ref="P11" ca="1" si="14">IF(ROW()=2,Q11,OFFSET(P11,-1,0)&amp;IF(LEN(Q11)=0,"",","&amp;Q11))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="11"/>
-        <v>{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -3429,72 +3621,145 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" si="15">IF(AND(C12=0,OR(NOT(ISBLANK(K12)),NOT(ISBLANK(L12)))),"날짜있음",
+        <f t="shared" ref="D12:D13" si="16">IF(AND(C12=0,OR(NOT(ISBLANK(K12)),NOT(ISBLANK(L12)))),"날짜있음",
 IF(AND(C12=1,OR(ISBLANK(K12),ISBLANK(L12))),"날짜없음",""))</f>
         <v/>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
-      <c r="F12">
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44419</v>
+      </c>
+      <c r="L12" s="1">
+        <v>44426</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M13" si="17">L12-K12+1</f>
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12:Q13" ca="1" si="18">IF(ROW()=2,R12,OFFSET(Q12,-1,0)&amp;IF(LEN(R12)=0,"",","&amp;R12))</f>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"}</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="8"/>
+        <v>{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="H12">
+        <v>2021</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>44415</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>44439</v>
       </c>
-      <c r="M12">
-        <f t="shared" ref="M12" si="16">L12-K12+1</f>
+      <c r="M13" s="7">
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" ref="P12" ca="1" si="17">IF(ROW()=2,Q12,OFFSET(P12,-1,0)&amp;IF(LEN(Q12)=0,"",","&amp;Q12))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" ref="Q12" si="18">IF(O12&lt;&gt;1,"",
-"{"""&amp;A$1&amp;""":"""&amp;A12&amp;""""
-&amp;IF(LEN(E12)=0,"",","""&amp;E$1&amp;""":"""&amp;E12&amp;"""")
-&amp;IF(LEN(F12)=0,"",","""&amp;F$1&amp;""":"""&amp;F12&amp;"""")
-&amp;IF(LEN(G12)=0,"",","""&amp;G$1&amp;""":"""&amp;G12&amp;"""")
-&amp;IF(LEN(H12)=0,"",","""&amp;H$1&amp;""":"""&amp;H12&amp;"""")
-&amp;IF(LEN(I12)=0,"",","""&amp;I$1&amp;""":"""&amp;I12&amp;"""")
-&amp;IF(LEN(J12)=0,"",","""&amp;J$1&amp;""":"""&amp;J12&amp;"""")
-&amp;","""&amp;N$1&amp;""":"&amp;N12&amp;"}")</f>
-        <v/>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" ref="R13" si="19">IF(P13&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A13&amp;""""
+&amp;IF(LEN(E13)=0,"",","""&amp;E$1&amp;""":"""&amp;E13&amp;"""")
+&amp;IF(LEN(F13)=0,"",","""&amp;F$1&amp;""":"""&amp;F13&amp;"""")
+&amp;IF(LEN(G13)=0,"",","""&amp;G$1&amp;""":"""&amp;G13&amp;"""")
+&amp;IF(LEN(H13)=0,"",","""&amp;H$1&amp;""":"""&amp;H13&amp;"""")
+&amp;IF(LEN(I13)=0,"",","""&amp;I$1&amp;""":"""&amp;I13&amp;"""")
+&amp;IF(LEN(J13)=0,"",","""&amp;J$1&amp;""":"""&amp;J13&amp;"""")
+&amp;","""&amp;N$1&amp;""":"&amp;N13
+&amp;IF(LEN(O13)=0,"",","""&amp;O$1&amp;""":"""&amp;O13&amp;"""")
+&amp;"}")</f>
+        <v>{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:L1048576">
+  <conditionalFormatting sqref="K1:L12 K14:L1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR($P1=0,$L1&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:L13">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($O1=0,$L1&lt;TODAY())</formula>
+      <formula>OR($P13=0,$L13&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
@@ -3712,7 +3977,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(U1,COUNTA(U:U)-1,0),1)=",",SUBSTITUTE(OFFSET(U1,COUNTA(U:U)-1,0),",","",1),OFFSET(U1,COUNTA(U:U)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}]</v>
+        <v>[{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"ps","da":1,"ad":1,"tp1":"dr","vl1":"pg1","cn1":100},{"id":"ps","da":2,"ad":1,"tp1":"dr","vl1":"pg2","cn1":500},{"id":"ps","da":3,"ad":1,"tp1":"dr","vl1":"pg3","cn1":1500}]</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3921,6 +4186,12 @@
         <f t="shared" ca="1" si="7"/>
         <v>{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55}</v>
       </c>
+      <c r="X5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
@@ -5114,7 +5385,7 @@
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000}</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24:V88" si="27">IF(T24&lt;&gt;1,"",
+        <f t="shared" ref="V24:V95" si="27">IF(T24&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
 &amp;","""&amp;C$1&amp;""":"&amp;C24
 &amp;","""&amp;D$1&amp;""":"&amp;D24
@@ -6807,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ref="E52:E88" ca="1" si="43">IF(ISBLANK(F52),"",
+        <f t="shared" ref="E52:E95" ca="1" si="43">IF(ISBLANK(F52),"",
 VLOOKUP(F52,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -6822,7 +7093,7 @@
         <v>7</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" ref="I52:I88" si="44">IF(F52="장비1상자",
+        <f t="shared" ref="I52:I95" si="44">IF(F52="장비1상자",
   IF(OR(G52&gt;3,H52&gt;5),"장비이상",""),
 IF(G52="GO",
   IF(H52&lt;100,"골드이상",""),
@@ -6851,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" ref="U52:U88" ca="1" si="45">IF(ROW()=2,V52,OFFSET(U52,-1,0)&amp;IF(LEN(V52)=0,"",","&amp;V52))</f>
+        <f t="shared" ref="U52:U95" ca="1" si="45">IF(ROW()=2,V52,OFFSET(U52,-1,0)&amp;IF(LEN(V52)=0,"",","&amp;V52))</f>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7}</v>
       </c>
       <c r="V52" t="str">
@@ -8588,11 +8859,11 @@
     </row>
     <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(A82,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
-        <v>복귀유저 누적 로그인</v>
+        <v>서프라이즈 노드워 상자</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -8601,30 +8872,38 @@
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ref="E82:E88" ca="1" si="51">IF(ISBLANK(F82),"",
+VLOOKUP(F82,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="F82" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H82">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="I82:I88" si="52">IF(F82="장비1상자",
+  IF(OR(G82&gt;3,H82&gt;5),"장비이상",""),
+IF(G82="GO",
+  IF(H82&lt;100,"골드이상",""),
+IF(G82="DI",
+  IF(H82&gt;29,"다이아너무많음",
+  IF(H82&gt;9,"다이아다소많음","")),"")))</f>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f t="shared" ref="J82:J88" ca="1" si="51">IF(ISBLANK(K82),"",
+        <f t="shared" ref="J82:J88" ca="1" si="53">IF(ISBLANK(K82),"",
 VLOOKUP(K82,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="N82" t="str">
-        <f t="shared" ref="N82:N88" si="52">IF(K82="장비1상자",
+        <f t="shared" ref="N82:N88" si="54">IF(K82="장비1상자",
   IF(OR(L82&gt;3,M82&gt;5),"장비이상",""),
 IF(L82="GO",
   IF(M82&lt;100,"골드이상",""),
@@ -8634,13 +8913,13 @@
         <v/>
       </c>
       <c r="O82" t="str">
-        <f t="shared" ref="O82:O88" ca="1" si="53">IF(ISBLANK(P82),"",
+        <f t="shared" ref="O82:O88" ca="1" si="55">IF(ISBLANK(P82),"",
 VLOOKUP(P82,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="S82" t="str">
-        <f t="shared" ref="S82:S88" si="54">IF(P82="장비1상자",
+        <f t="shared" ref="S82:S88" si="56">IF(P82="장비1상자",
   IF(OR(Q82&gt;3,R82&gt;5),"장비이상",""),
 IF(Q82="GO",
   IF(R82&lt;100,"골드이상",""),
@@ -8653,372 +8932,1026 @@
         <v>0</v>
       </c>
       <c r="U82" t="str">
+        <f t="shared" ref="U82:U88" ca="1" si="57">IF(ROW()=2,V82,OFFSET(U82,-1,0)&amp;IF(LEN(V82)=0,"",","&amp;V82))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" ref="V82:V88" si="58">IF(T82&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A82&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C82
+&amp;","""&amp;D$1&amp;""":"&amp;D82
+&amp;IF(LEN(E82)=0,"",","""&amp;E$1&amp;""":"""&amp;E82&amp;"""")
+&amp;IF(LEN(G82)=0,"",","""&amp;G$1&amp;""":"""&amp;G82&amp;"""")
+&amp;IF(LEN(H82)=0,"",","""&amp;H$1&amp;""":"&amp;H82)
+&amp;IF(LEN(J82)=0,"",","""&amp;J$1&amp;""":"""&amp;J82&amp;"""")
+&amp;IF(LEN(L82)=0,"",","""&amp;L$1&amp;""":"""&amp;L82&amp;"""")
+&amp;IF(LEN(M82)=0,"",","""&amp;M$1&amp;""":"&amp;M82)
+&amp;IF(LEN(O82)=0,"",","""&amp;O$1&amp;""":"""&amp;O82&amp;"""")
+&amp;IF(LEN(Q82)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q82&amp;"""")
+&amp;IF(LEN(R82)=0,"",","""&amp;R$1&amp;""":"&amp;R82)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(A83,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83">
+        <v>500</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(A84,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84">
+        <v>500</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(A85,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85">
+        <v>500</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(A86,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86">
+        <v>500</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(A87,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87">
+        <v>500</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(A88,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>서프라이즈 노드워 상자</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88">
+        <v>500</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="str">
+        <f>VLOOKUP(A89,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>복귀유저 누적 로그인</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89">
+        <v>2000</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" ref="J89:J95" ca="1" si="59">IF(ISBLANK(K89),"",
+VLOOKUP(K89,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" ref="N89:N95" si="60">IF(K89="장비1상자",
+  IF(OR(L89&gt;3,M89&gt;5),"장비이상",""),
+IF(L89="GO",
+  IF(M89&lt;100,"골드이상",""),
+IF(L89="DI",
+  IF(M89&gt;29,"다이아너무많음",
+  IF(M89&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" ref="O89:O95" ca="1" si="61">IF(ISBLANK(P89),"",
+VLOOKUP(P89,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" ref="S89:S95" si="62">IF(P89="장비1상자",
+  IF(OR(Q89&gt;3,R89&gt;5),"장비이상",""),
+IF(Q89="GO",
+  IF(R89&lt;100,"골드이상",""),
+IF(Q89="DI",
+  IF(R89&gt;29,"다이아너무많음",
+  IF(R89&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V82" t="str">
+      <c r="V89" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:22">
-      <c r="A83" t="s">
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
         <v>77</v>
       </c>
-      <c r="B83" t="str">
-        <f>VLOOKUP(A83,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B90" t="str">
+        <f>VLOOKUP(A90,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C83">
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="str">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F90" t="s">
         <v>2</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G90" t="s">
         <v>62</v>
       </c>
-      <c r="H83">
+      <c r="H90">
         <v>2000</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I90" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J83" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S83" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83" t="str">
+      <c r="J90" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V83" t="str">
+      <c r="V90" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:22">
-      <c r="A84" t="s">
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
         <v>77</v>
       </c>
-      <c r="B84" t="str">
-        <f>VLOOKUP(A84,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B91" t="str">
+        <f>VLOOKUP(A91,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C84">
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="str">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F91" t="s">
         <v>2</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G91" t="s">
         <v>62</v>
       </c>
-      <c r="H84">
+      <c r="H91">
         <v>2000</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I91" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J84" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S84" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84" t="str">
+      <c r="J91" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V84" t="str">
+      <c r="V91" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:22">
-      <c r="A85" t="s">
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
         <v>77</v>
       </c>
-      <c r="B85" t="str">
-        <f>VLOOKUP(A85,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B92" t="str">
+        <f>VLOOKUP(A92,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C85">
+      <c r="C92">
         <v>4</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="str">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F92" t="s">
         <v>2</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G92" t="s">
         <v>62</v>
       </c>
-      <c r="H85">
+      <c r="H92">
         <v>2000</v>
       </c>
-      <c r="I85" t="str">
+      <c r="I92" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J85" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S85" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85" t="str">
+      <c r="J92" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V85" t="str">
+      <c r="V92" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:22">
-      <c r="A86" t="s">
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="str">
-        <f>VLOOKUP(A86,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B93" t="str">
+        <f>VLOOKUP(A93,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C86">
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="str">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F93" t="s">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G93" t="s">
         <v>62</v>
       </c>
-      <c r="H86">
+      <c r="H93">
         <v>2000</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I93" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J86" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O86" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S86" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86" t="str">
+      <c r="J93" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S93" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V86" t="str">
+      <c r="V93" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:22">
-      <c r="A87" t="s">
+    <row r="94" spans="1:22">
+      <c r="A94" t="s">
         <v>77</v>
       </c>
-      <c r="B87" t="str">
-        <f>VLOOKUP(A87,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B94" t="str">
+        <f>VLOOKUP(A94,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C87">
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="str">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F94" t="s">
         <v>2</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G94" t="s">
         <v>62</v>
       </c>
-      <c r="H87">
+      <c r="H94">
         <v>2000</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I94" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J87" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O87" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S87" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87" t="str">
+      <c r="J94" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S94" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V87" t="str">
+      <c r="V94" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:22">
-      <c r="A88" t="s">
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
         <v>77</v>
       </c>
-      <c r="B88" t="str">
-        <f>VLOOKUP(A88,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+      <c r="B95" t="str">
+        <f>VLOOKUP(A95,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
         <v>복귀유저 누적 로그인</v>
       </c>
-      <c r="C88">
+      <c r="C95">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="str">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
         <f t="shared" ca="1" si="43"/>
         <v>cu</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F95" t="s">
         <v>2</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G95" t="s">
         <v>62</v>
       </c>
-      <c r="H88">
+      <c r="H95">
         <v>2000</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I95" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J88" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O88" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="S88" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88" t="str">
+      <c r="J95" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1}</v>
       </c>
-      <c r="V88" t="str">
+      <c r="V95" t="str">
         <f t="shared" si="27"/>
         <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(A96,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>포인트 상점</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" ref="E96:E98" ca="1" si="63">IF(ISBLANK(F96),"",
+VLOOKUP(F96,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>dr</v>
+      </c>
+      <c r="F96" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" t="s">
+        <v>95</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" ref="I96:I98" si="64">IF(F96="장비1상자",
+  IF(OR(G96&gt;3,H96&gt;5),"장비이상",""),
+IF(G96="GO",
+  IF(H96&lt;100,"골드이상",""),
+IF(G96="DI",
+  IF(H96&gt;29,"다이아너무많음",
+  IF(H96&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" ref="J96:J98" ca="1" si="65">IF(ISBLANK(K96),"",
+VLOOKUP(K96,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" ref="N96:N98" si="66">IF(K96="장비1상자",
+  IF(OR(L96&gt;3,M96&gt;5),"장비이상",""),
+IF(L96="GO",
+  IF(M96&lt;100,"골드이상",""),
+IF(L96="DI",
+  IF(M96&gt;29,"다이아너무많음",
+  IF(M96&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" ref="O96:O98" ca="1" si="67">IF(ISBLANK(P96),"",
+VLOOKUP(P96,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" ref="S96:S98" si="68">IF(P96="장비1상자",
+  IF(OR(Q96&gt;3,R96&gt;5),"장비이상",""),
+IF(Q96="GO",
+  IF(R96&lt;100,"골드이상",""),
+IF(Q96="DI",
+  IF(R96&gt;29,"다이아너무많음",
+  IF(R96&gt;9,"다이아다소많음","")),"")))</f>
+        <v/>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" ref="U96:U98" ca="1" si="69">IF(ROW()=2,V96,OFFSET(U96,-1,0)&amp;IF(LEN(V96)=0,"",","&amp;V96))</f>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"ps","da":1,"ad":1,"tp1":"dr","vl1":"pg1","cn1":100}</v>
+      </c>
+      <c r="V96" t="str">
+        <f t="shared" ref="V96:V98" ca="1" si="70">IF(T96&lt;&gt;1,"",
+"{"""&amp;A$1&amp;""":"""&amp;A96&amp;""""
+&amp;","""&amp;C$1&amp;""":"&amp;C96
+&amp;","""&amp;D$1&amp;""":"&amp;D96
+&amp;IF(LEN(E96)=0,"",","""&amp;E$1&amp;""":"""&amp;E96&amp;"""")
+&amp;IF(LEN(G96)=0,"",","""&amp;G$1&amp;""":"""&amp;G96&amp;"""")
+&amp;IF(LEN(H96)=0,"",","""&amp;H$1&amp;""":"&amp;H96)
+&amp;IF(LEN(J96)=0,"",","""&amp;J$1&amp;""":"""&amp;J96&amp;"""")
+&amp;IF(LEN(L96)=0,"",","""&amp;L$1&amp;""":"""&amp;L96&amp;"""")
+&amp;IF(LEN(M96)=0,"",","""&amp;M$1&amp;""":"&amp;M96)
+&amp;IF(LEN(O96)=0,"",","""&amp;O$1&amp;""":"""&amp;O96&amp;"""")
+&amp;IF(LEN(Q96)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q96&amp;"""")
+&amp;IF(LEN(R96)=0,"",","""&amp;R$1&amp;""":"&amp;R96)&amp;"}")</f>
+        <v>{"id":"ps","da":1,"ad":1,"tp1":"dr","vl1":"pg1","cn1":100}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(A97,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>포인트 상점</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>dr</v>
+      </c>
+      <c r="F97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97">
+        <v>500</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"ps","da":1,"ad":1,"tp1":"dr","vl1":"pg1","cn1":100},{"id":"ps","da":2,"ad":1,"tp1":"dr","vl1":"pg2","cn1":500}</v>
+      </c>
+      <c r="V97" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"id":"ps","da":2,"ad":1,"tp1":"dr","vl1":"pg2","cn1":500}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(A98,CumulativeEventTypeTable!$A:$B,MATCH(CumulativeEventTypeTable!$B$1,CumulativeEventRewardTable!$A$1:$B$1,0),0)</f>
+        <v>포인트 상점</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>dr</v>
+      </c>
+      <c r="F98" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98">
+        <v>1500</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"id":"na","da":1,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"na","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"na","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":45},{"id":"na","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":55},{"id":"na","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"na","da":6,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"na","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"no","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"no","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"no","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"no","da":4,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"no","da":5,"ad":0,"tp1":"cu","vl1":"RE","cn1":5},{"id":"no","da":6,"ad":0,"tp1":"fe","vl1":"Equip2301","cn1":1},{"id":"no","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"no","da":8,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"no","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"no","da":10,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"co","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"co","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":50},{"id":"co","da":3,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"co","da":4,"ad":1,"tp1":"cu","vl1":"RE","cn1":10,"tp2":"cu","vl2":"GO","cn2":25000},{"id":"sl","da":1,"ad":0,"tp1":"cu","vl1":"EN","cn1":20},{"id":"sl","da":2,"ad":0,"tp1":"cu","vl1":"DI","cn1":15},{"id":"sl","da":3,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":4,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"sl","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":6,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":7,"ad":0,"tp1":"cu","vl1":"DI","cn1":20},{"id":"sl","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":25},{"id":"sl","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":10,"ad":0,"tp1":"cu","vl1":"DI","cn1":10},{"id":"sl","da":11,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"sl","da":12,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":13,"ad":0,"tp1":"cu","vl1":"DI","cn1":25},{"id":"sl","da":14,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":15,"ad":0,"tp1":"cu","vl1":"EN","cn1":15},{"id":"sl","da":16,"ad":0,"tp1":"cu","vl1":"GO","cn1":7500},{"id":"sl","da":17,"ad":0,"tp1":"cu","vl1":"DI","cn1":35},{"id":"sl","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":10000},{"id":"sl","da":19,"ad":0,"tp1":"cu","vl1":"DI","cn1":30},{"id":"sl","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":5000},{"id":"sl","da":21,"ad":1,"tp1":"cu","vl1":"DI","cn1":50,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"so","da":1,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":2,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":3,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":4,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":5,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":6,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":7,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":8,"ad":0,"tp1":"cu","vl1":"EN","cn1":5},{"id":"so","da":9,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":10,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":11,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":12,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":13,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":14,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":15,"ad":0,"tp1":"cu","vl1":"GO","cn1":900},{"id":"so","da":16,"ad":0,"tp1":"cu","vl1":"EN","cn1":9},{"id":"so","da":17,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"so","da":18,"ad":0,"tp1":"cu","vl1":"GO","cn1":1000},{"id":"so","da":19,"ad":0,"tp1":"cu","vl1":"EN","cn1":6},{"id":"so","da":20,"ad":0,"tp1":"cu","vl1":"GO","cn1":500},{"id":"so","da":21,"ad":0,"tp1":"cu","vl1":"DI","cn1":2},{"id":"so","da":22,"ad":0,"tp1":"cu","vl1":"GO","cn1":700},{"id":"so","da":23,"ad":0,"tp1":"be","vl1":"3","cn1":1},{"id":"so","da":24,"ad":0,"tp1":"cu","vl1":"GO","cn1":800},{"id":"so","da":25,"ad":0,"tp1":"be","vl1":"2","cn1":1},{"id":"so","da":26,"ad":0,"tp1":"cu","vl1":"DI","cn1":3},{"id":"so","da":27,"ad":0,"tp1":"be","vl1":"1","cn1":1},{"id":"so","da":28,"ad":0,"tp1":"cu","vl1":"EN","cn1":7},{"id":"so","da":29,"ad":0,"tp1":"cu","vl1":"GO","cn1":600},{"id":"so","da":30,"ad":1,"tp1":"fe","vl1":"Equip0401","cn1":1},{"id":"so","da":31,"ad":1,"tp1":"fe","vl1":"Equip1401","cn1":1},{"id":"ps","da":1,"ad":1,"tp1":"dr","vl1":"pg1","cn1":100},{"id":"ps","da":2,"ad":1,"tp1":"dr","vl1":"pg2","cn1":500},{"id":"ps","da":3,"ad":1,"tp1":"dr","vl1":"pg3","cn1":1500}</v>
+      </c>
+      <c r="V98" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"id":"ps","da":3,"ad":1,"tp1":"dr","vl1":"pg3","cn1":1500}</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F88 K2:K88 P2:P88" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F98 K2:K98 P2:P98" xr:uid="{0D4CC734-090B-4216-9DE7-C0A9016BED04}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업CumulativeEvent.xlsx
+++ b/Excel/작업CumulativeEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FCBA7-8F9F-44AF-A0CB-3BEA8AA532C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8353B-94E0-4216-B604-766696885220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084630FF-7299-4ECA-B5EA-AB01F532DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CumulativeEventTypeTable" sheetId="1" r:id="rId1"/>
@@ -2907,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFF48D-9CF5-49C6-9AA5-6B4F451D33B2}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -3056,7 +3056,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
+        <v>[{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"29","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}]</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3647,17 +3647,17 @@
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1">
         <v>44419</v>
       </c>
       <c r="L12" s="1">
-        <v>44426</v>
+        <v>44436</v>
       </c>
       <c r="M12">
         <f t="shared" ref="M12:M13" si="17">L12-K12+1</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3670,11 +3670,11 @@
       </c>
       <c r="Q12" t="str">
         <f t="shared" ref="Q12:Q13" ca="1" si="18">IF(ROW()=2,R12,OFFSET(Q12,-1,0)&amp;IF(LEN(R12)=0,"",","&amp;R12))</f>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"29","td":0,"cc":"2"}</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="8"/>
-        <v>{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"}</v>
+        <v>{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"29","td":0,"cc":"2"}</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="Q13" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"19","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
+        <v>{"id":"na","td":7},{"id":"no","td":10},{"id":"co","td":4},{"id":"sl","sy":"2021","sm":"8","sd":"8","ey":"2021","em":"9","ed":"2","td":21},{"id":"so","sy":"2021","sm":"7","sd":"7","ey":"2021","em":"8","ed":"14","td":31},{"id":"ps","sy":"2021","sm":"8","sd":"11","ey":"2021","em":"8","ed":"29","td":0,"cc":"2"},{"id":"rv","sy":"2021","sm":"8","sd":"7","ey":"2021","em":"9","ed":"1","td":0}</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" ref="R13" si="19">IF(P13&lt;&gt;1,"",
@@ -3772,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92E476-536C-4260-9147-F2DA7D41E448}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G47" activePane=